--- a/data/JRC - Raw materials demand for wind and solar PV technologies in the transition towards a decarbonised energy system - Materials demand database.xlsx
+++ b/data/JRC - Raw materials demand for wind and solar PV technologies in the transition towards a decarbonised energy system - Materials demand database.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\net1.cec.eu.int\jrc-services\PTT-Users\carrsam\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sebastian\GitHub\recycling-energy-system-models\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEAEBF3C-5946-43D7-8F12-4B01E65C0F6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="72" windowWidth="22980" windowHeight="9528" tabRatio="637"/>
+    <workbookView xWindow="-38510" yWindow="-110" windowWidth="38620" windowHeight="21100" tabRatio="637" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Database" sheetId="58" r:id="rId1"/>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1955" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1988" uniqueCount="73">
   <si>
     <t>Scenario</t>
   </si>
@@ -143,12 +144,115 @@
   <si>
     <t>Zn</t>
   </si>
+  <si>
+    <t>2018</t>
+  </si>
+  <si>
+    <t>2019</t>
+  </si>
+  <si>
+    <t>2020</t>
+  </si>
+  <si>
+    <t>2021</t>
+  </si>
+  <si>
+    <t>2022</t>
+  </si>
+  <si>
+    <t>2023</t>
+  </si>
+  <si>
+    <t>2024</t>
+  </si>
+  <si>
+    <t>2025</t>
+  </si>
+  <si>
+    <t>2026</t>
+  </si>
+  <si>
+    <t>2027</t>
+  </si>
+  <si>
+    <t>2028</t>
+  </si>
+  <si>
+    <t>2029</t>
+  </si>
+  <si>
+    <t>2030</t>
+  </si>
+  <si>
+    <t>2031</t>
+  </si>
+  <si>
+    <t>2032</t>
+  </si>
+  <si>
+    <t>2033</t>
+  </si>
+  <si>
+    <t>2034</t>
+  </si>
+  <si>
+    <t>2035</t>
+  </si>
+  <si>
+    <t>2036</t>
+  </si>
+  <si>
+    <t>2037</t>
+  </si>
+  <si>
+    <t>2038</t>
+  </si>
+  <si>
+    <t>2039</t>
+  </si>
+  <si>
+    <t>2040</t>
+  </si>
+  <si>
+    <t>2041</t>
+  </si>
+  <si>
+    <t>2042</t>
+  </si>
+  <si>
+    <t>2043</t>
+  </si>
+  <si>
+    <t>2044</t>
+  </si>
+  <si>
+    <t>2045</t>
+  </si>
+  <si>
+    <t>2046</t>
+  </si>
+  <si>
+    <t>2047</t>
+  </si>
+  <si>
+    <t>2048</t>
+  </si>
+  <si>
+    <t>2049</t>
+  </si>
+  <si>
+    <t>2050</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+  </numFmts>
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -171,6 +275,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -211,10 +322,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
@@ -233,15 +345,1077 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="2">
+    <cellStyle name="Komma" xfId="1" builtinId="3"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="42">
     <dxf>
       <font>
-        <color rgb="FFC00000"/>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
       </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -256,8 +1430,71 @@
 </styleSheet>
 </file>
 
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B8C6A285-01B1-4BEB-A1A9-316D6453CD78}" name="Tabelle1" displayName="Tabelle1" ref="A1:AL391" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1" headerRowBorderDxfId="40" tableBorderDxfId="41">
+  <autoFilter ref="A1:AL391" xr:uid="{B8C6A285-01B1-4BEB-A1A9-316D6453CD78}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="EU"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="1">
+      <filters>
+        <filter val="Solar PV"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="3">
+      <filters>
+        <filter val="MDS"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <tableColumns count="38">
+    <tableColumn id="1" xr3:uid="{7F38B738-D729-4FA1-A386-EE8FFE2D1041}" name="Region" dataDxfId="39"/>
+    <tableColumn id="2" xr3:uid="{F2D13187-97F7-46B2-AB6E-956A3403E3FC}" name="Technology" dataDxfId="38"/>
+    <tableColumn id="3" xr3:uid="{4EE4F173-2560-49B9-8B1C-0F997DD36152}" name="Material" dataDxfId="37"/>
+    <tableColumn id="4" xr3:uid="{5480DB77-C8F1-401C-BFC7-B3DEDB9F1092}" name="Scenario" dataDxfId="36"/>
+    <tableColumn id="5" xr3:uid="{0A71CBB5-C9F9-496E-9F47-A9A4252CFF2A}" name="Unit" dataDxfId="35"/>
+    <tableColumn id="6" xr3:uid="{77AEA0DA-0E22-43E9-AE7B-161C6156A669}" name="2018" dataDxfId="34"/>
+    <tableColumn id="7" xr3:uid="{9D272A9C-9FBD-47B4-99AB-24B5EC1F6148}" name="2019" dataDxfId="33"/>
+    <tableColumn id="8" xr3:uid="{FB4BF13B-5357-42AA-A114-EDE2FF77A4EC}" name="2020" dataDxfId="32"/>
+    <tableColumn id="9" xr3:uid="{B1DA9A9A-E55F-4618-9860-3C4ECEA2359E}" name="2021" dataDxfId="31"/>
+    <tableColumn id="10" xr3:uid="{74019768-EE41-4FCD-9F4D-D041E7BD4BDB}" name="2022" dataDxfId="30"/>
+    <tableColumn id="11" xr3:uid="{38946B6A-CEDB-4048-AAAA-B772F73788EE}" name="2023" dataDxfId="29"/>
+    <tableColumn id="12" xr3:uid="{9DF5BD98-482A-41FC-9929-58A450D60142}" name="2024" dataDxfId="28"/>
+    <tableColumn id="13" xr3:uid="{BFBE29DD-04C0-4F28-914F-923E9F7F8C06}" name="2025" dataDxfId="27"/>
+    <tableColumn id="14" xr3:uid="{C8EB831D-44C1-4228-AE07-85960BE7060D}" name="2026" dataDxfId="26"/>
+    <tableColumn id="15" xr3:uid="{F46DDFF7-BA6C-4196-8483-0DA12802D790}" name="2027" dataDxfId="25"/>
+    <tableColumn id="16" xr3:uid="{DE021F92-E849-4361-B168-38441FD74B2D}" name="2028" dataDxfId="24"/>
+    <tableColumn id="17" xr3:uid="{C77ECC48-9AF8-4DC1-86C7-27B3E1C6C360}" name="2029" dataDxfId="23"/>
+    <tableColumn id="18" xr3:uid="{0400C5B1-577A-447A-B73A-BDA2265C6A1B}" name="2030" dataDxfId="22"/>
+    <tableColumn id="19" xr3:uid="{2F24987C-63D8-489B-9912-D97DBA8CC061}" name="2031" dataDxfId="21"/>
+    <tableColumn id="20" xr3:uid="{D8E1B4B5-618C-4F0F-B9D2-26F0F5956B7B}" name="2032" dataDxfId="20"/>
+    <tableColumn id="21" xr3:uid="{4E0BF051-F279-479D-9909-BBADBFBDB960}" name="2033" dataDxfId="19"/>
+    <tableColumn id="22" xr3:uid="{E51B541C-5607-443D-A3BF-5E1A9B3FEBFE}" name="2034" dataDxfId="18"/>
+    <tableColumn id="23" xr3:uid="{D9A69665-9325-45E2-B8D7-F0C73EAA9CD9}" name="2035" dataDxfId="17"/>
+    <tableColumn id="24" xr3:uid="{6EA141C2-86E8-4663-A62E-78ADAF2CC0CA}" name="2036" dataDxfId="16"/>
+    <tableColumn id="25" xr3:uid="{D96D0DD7-D78B-4F92-A293-B9A909A431AF}" name="2037" dataDxfId="15"/>
+    <tableColumn id="26" xr3:uid="{4D26BD98-7DEF-4EA1-BA1F-5C0A9311019B}" name="2038" dataDxfId="14"/>
+    <tableColumn id="27" xr3:uid="{EC5AC86D-C700-46E6-94F6-89627153C81B}" name="2039" dataDxfId="13"/>
+    <tableColumn id="28" xr3:uid="{3A77A9BC-52A9-4950-A799-811BF77F7763}" name="2040" dataDxfId="12"/>
+    <tableColumn id="29" xr3:uid="{173BE24D-9391-4512-A102-53CC738838F2}" name="2041" dataDxfId="11"/>
+    <tableColumn id="30" xr3:uid="{0E4AD2DF-9F64-4834-A045-8D1719BA590A}" name="2042" dataDxfId="10"/>
+    <tableColumn id="31" xr3:uid="{350011DB-9017-4D10-85CD-F812554B446F}" name="2043" dataDxfId="9"/>
+    <tableColumn id="32" xr3:uid="{08172B92-88D8-45D5-97BE-6893A8477462}" name="2044" dataDxfId="8"/>
+    <tableColumn id="33" xr3:uid="{6379F6CF-271D-485D-8DC9-75AEAD7C2FAB}" name="2045" dataDxfId="7"/>
+    <tableColumn id="34" xr3:uid="{DFEF4A69-EA08-43D7-87B1-767FDC4DCA21}" name="2046" dataDxfId="6"/>
+    <tableColumn id="35" xr3:uid="{1F6DF558-C682-46EF-B27A-7CD1BE05D5E2}" name="2047" dataDxfId="5"/>
+    <tableColumn id="36" xr3:uid="{FE81FDE7-7DF0-4C18-9DC3-2EB2C2090A63}" name="2048" dataDxfId="4"/>
+    <tableColumn id="37" xr3:uid="{889E4C14-02F4-4332-B7CC-07DFF6D5207D}" name="2049" dataDxfId="3"/>
+    <tableColumn id="38" xr3:uid="{04C789A7-DE59-4163-82B4-A16945CDB737}" name="2050" dataDxfId="2"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -332,6 +1569,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -367,6 +1621,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -542,23 +1813,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AL391"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J396" sqref="J396"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="4"/>
-    <col min="2" max="2" width="14.109375" style="4" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="11.109375" style="4" customWidth="1"/>
-    <col min="5" max="5" width="11.109375" style="7" customWidth="1"/>
-    <col min="6" max="38" width="11.109375" style="4" customWidth="1"/>
-    <col min="39" max="16384" width="8.88671875" style="4"/>
+    <col min="1" max="1" width="8.90625" style="4"/>
+    <col min="2" max="2" width="14.08984375" style="4" customWidth="1"/>
+    <col min="3" max="3" width="11.6328125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="11.08984375" style="4" customWidth="1"/>
+    <col min="5" max="5" width="11.08984375" style="7" customWidth="1"/>
+    <col min="6" max="38" width="11.08984375" style="4" customWidth="1"/>
+    <col min="39" max="16384" width="8.90625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>1</v>
       </c>
@@ -574,107 +1847,107 @@
       <c r="E1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="1">
-        <v>2018</v>
-      </c>
-      <c r="G1" s="1">
-        <v>2019</v>
-      </c>
-      <c r="H1" s="1">
-        <v>2020</v>
-      </c>
-      <c r="I1" s="1">
-        <v>2021</v>
-      </c>
-      <c r="J1" s="1">
-        <v>2022</v>
-      </c>
-      <c r="K1" s="1">
-        <v>2023</v>
-      </c>
-      <c r="L1" s="1">
-        <v>2024</v>
-      </c>
-      <c r="M1" s="1">
-        <v>2025</v>
-      </c>
-      <c r="N1" s="1">
-        <v>2026</v>
-      </c>
-      <c r="O1" s="1">
-        <v>2027</v>
-      </c>
-      <c r="P1" s="1">
-        <v>2028</v>
-      </c>
-      <c r="Q1" s="1">
-        <v>2029</v>
-      </c>
-      <c r="R1" s="1">
-        <v>2030</v>
-      </c>
-      <c r="S1" s="1">
-        <v>2031</v>
-      </c>
-      <c r="T1" s="1">
-        <v>2032</v>
-      </c>
-      <c r="U1" s="1">
-        <v>2033</v>
-      </c>
-      <c r="V1" s="1">
-        <v>2034</v>
-      </c>
-      <c r="W1" s="1">
-        <v>2035</v>
-      </c>
-      <c r="X1" s="1">
-        <v>2036</v>
-      </c>
-      <c r="Y1" s="1">
-        <v>2037</v>
-      </c>
-      <c r="Z1" s="1">
-        <v>2038</v>
-      </c>
-      <c r="AA1" s="1">
-        <v>2039</v>
-      </c>
-      <c r="AB1" s="1">
-        <v>2040</v>
-      </c>
-      <c r="AC1" s="1">
-        <v>2041</v>
-      </c>
-      <c r="AD1" s="1">
-        <v>2042</v>
-      </c>
-      <c r="AE1" s="1">
-        <v>2043</v>
-      </c>
-      <c r="AF1" s="1">
-        <v>2044</v>
-      </c>
-      <c r="AG1" s="1">
-        <v>2045</v>
-      </c>
-      <c r="AH1" s="1">
-        <v>2046</v>
-      </c>
-      <c r="AI1" s="1">
-        <v>2047</v>
-      </c>
-      <c r="AJ1" s="1">
-        <v>2048</v>
-      </c>
-      <c r="AK1" s="1">
-        <v>2049</v>
-      </c>
-      <c r="AL1" s="1">
-        <v>2050</v>
+      <c r="F1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>72</v>
       </c>
     </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="A2" s="7" t="s">
         <v>4</v>
       </c>
@@ -790,7 +2063,7 @@
         <v>6979337.4159999993</v>
       </c>
     </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="A3" s="7" t="s">
         <v>4</v>
       </c>
@@ -906,7 +2179,7 @@
         <v>20388295.719000001</v>
       </c>
     </row>
-    <row r="4" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="A4" s="7" t="s">
         <v>4</v>
       </c>
@@ -1022,7 +2295,7 @@
         <v>46326138.087999992</v>
       </c>
     </row>
-    <row r="5" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="A5" s="11" t="s">
         <v>4</v>
       </c>
@@ -1138,7 +2411,7 @@
         <v>2258410.2676000008</v>
       </c>
     </row>
-    <row r="6" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="A6" s="12" t="s">
         <v>4</v>
       </c>
@@ -1254,7 +2527,7 @@
         <v>7062006.0240000002</v>
       </c>
     </row>
-    <row r="7" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="A7" s="9" t="s">
         <v>4</v>
       </c>
@@ -1370,7 +2643,7 @@
         <v>16217078.5505</v>
       </c>
     </row>
-    <row r="8" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="A8" s="7" t="s">
         <v>4</v>
       </c>
@@ -1486,7 +2759,7 @@
         <v>88993.072000000015</v>
       </c>
     </row>
-    <row r="9" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="A9" s="7" t="s">
         <v>4</v>
       </c>
@@ -1602,7 +2875,7 @@
         <v>278172.81000000006</v>
       </c>
     </row>
-    <row r="10" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="A10" s="7" t="s">
         <v>4</v>
       </c>
@@ -1718,7 +2991,7 @@
         <v>636763.74</v>
       </c>
     </row>
-    <row r="11" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="A11" s="11" t="s">
         <v>4</v>
       </c>
@@ -1834,7 +3107,7 @@
         <v>156856.65224000005</v>
       </c>
     </row>
-    <row r="12" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="A12" s="12" t="s">
         <v>4</v>
       </c>
@@ -1950,7 +3223,7 @@
         <v>490271.43195000011</v>
       </c>
     </row>
-    <row r="13" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="A13" s="9" t="s">
         <v>4</v>
       </c>
@@ -2066,7 +3339,7 @@
         <v>1129530.8898</v>
       </c>
     </row>
-    <row r="14" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="A14" s="7" t="s">
         <v>4</v>
       </c>
@@ -2182,7 +3455,7 @@
         <v>22236.45736</v>
       </c>
     </row>
-    <row r="15" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="A15" s="7" t="s">
         <v>4</v>
       </c>
@@ -2298,7 +3571,7 @@
         <v>62600.238900000018</v>
       </c>
     </row>
-    <row r="16" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="A16" s="12" t="s">
         <v>4</v>
       </c>
@@ -2414,7 +3687,7 @@
         <v>137184.32110000003</v>
       </c>
     </row>
-    <row r="17" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="A17" s="11" t="s">
         <v>4</v>
       </c>
@@ -2530,7 +3803,7 @@
         <v>6.1235061355957567</v>
       </c>
     </row>
-    <row r="18" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="A18" s="12" t="s">
         <v>4</v>
       </c>
@@ -2646,7 +3919,7 @@
         <v>80.391557407516842</v>
       </c>
     </row>
-    <row r="19" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="A19" s="9" t="s">
         <v>4</v>
       </c>
@@ -2762,7 +4035,7 @@
         <v>358.88534000000004</v>
       </c>
     </row>
-    <row r="20" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="A20" s="12" t="s">
         <v>4</v>
       </c>
@@ -2878,7 +4151,7 @@
         <v>10270.063220000002</v>
       </c>
     </row>
-    <row r="21" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="A21" s="12" t="s">
         <v>4</v>
       </c>
@@ -2994,7 +4267,7 @@
         <v>32051.093535</v>
       </c>
     </row>
-    <row r="22" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="A22" s="12" t="s">
         <v>4</v>
       </c>
@@ -3110,7 +4383,7 @@
         <v>74440.791634999987</v>
       </c>
     </row>
-    <row r="23" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="A23" s="11" t="s">
         <v>4</v>
       </c>
@@ -3226,7 +4499,7 @@
         <v>46535.944360000001</v>
       </c>
     </row>
-    <row r="24" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="A24" s="12" t="s">
         <v>4</v>
       </c>
@@ -3342,7 +4615,7 @@
         <v>147462.75967500004</v>
       </c>
     </row>
-    <row r="25" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="A25" s="9" t="s">
         <v>4</v>
       </c>
@@ -3458,7 +4731,7 @@
         <v>353368.2757</v>
       </c>
     </row>
-    <row r="26" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="A26" s="7" t="s">
         <v>4</v>
       </c>
@@ -3574,7 +4847,7 @@
         <v>31.464534531196541</v>
       </c>
     </row>
-    <row r="27" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="A27" s="7" t="s">
         <v>4</v>
       </c>
@@ -3690,7 +4963,7 @@
         <v>311.69051902927697</v>
       </c>
     </row>
-    <row r="28" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="A28" s="7" t="s">
         <v>4</v>
       </c>
@@ -3806,7 +5079,7 @@
         <v>1350.0985430000001</v>
       </c>
     </row>
-    <row r="29" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="A29" s="11" t="s">
         <v>4</v>
       </c>
@@ -3922,7 +5195,7 @@
         <v>383774.96136000007</v>
       </c>
     </row>
-    <row r="30" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="A30" s="7" t="s">
         <v>4</v>
       </c>
@@ -4038,7 +5311,7 @@
         <v>1202440.9878000002</v>
       </c>
     </row>
-    <row r="31" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="A31" s="9" t="s">
         <v>4</v>
       </c>
@@ -4154,7 +5427,7 @@
         <v>2785778.2876999998</v>
       </c>
     </row>
-    <row r="32" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="A32" s="7" t="s">
         <v>4</v>
       </c>
@@ -4270,7 +5543,7 @@
         <v>15304.182840000003</v>
       </c>
     </row>
-    <row r="33" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="A33" s="7" t="s">
         <v>4</v>
       </c>
@@ -4386,7 +5659,7 @@
         <v>47828.267370000016</v>
       </c>
     </row>
-    <row r="34" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="A34" s="7" t="s">
         <v>4</v>
       </c>
@@ -4502,7 +5775,7 @@
         <v>109678.46357000001</v>
       </c>
     </row>
-    <row r="35" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="A35" s="11" t="s">
         <v>4</v>
       </c>
@@ -4618,7 +5891,7 @@
         <v>2129.3389200000001</v>
       </c>
     </row>
-    <row r="36" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="A36" s="7" t="s">
         <v>4</v>
       </c>
@@ -4734,7 +6007,7 @@
         <v>6646.5970200000011</v>
       </c>
     </row>
-    <row r="37" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="A37" s="7" t="s">
         <v>4</v>
       </c>
@@ -4850,7 +6123,7 @@
         <v>15409.744670000002</v>
       </c>
     </row>
-    <row r="38" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="A38" s="11" t="s">
         <v>4</v>
       </c>
@@ -4966,7 +6239,7 @@
         <v>263.25232843679288</v>
       </c>
     </row>
-    <row r="39" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="A39" s="7" t="s">
         <v>4</v>
       </c>
@@ -5082,7 +6355,7 @@
         <v>2885.8082118157668</v>
       </c>
     </row>
-    <row r="40" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="A40" s="9" t="s">
         <v>4</v>
       </c>
@@ -5198,7 +6471,7 @@
         <v>12642.813042</v>
       </c>
     </row>
-    <row r="41" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="A41" s="7" t="s">
         <v>4</v>
       </c>
@@ -5314,7 +6587,7 @@
         <v>7360.0442240000011</v>
       </c>
     </row>
-    <row r="42" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="A42" s="7" t="s">
         <v>4</v>
       </c>
@@ -5430,7 +6703,7 @@
         <v>21398.147685</v>
       </c>
     </row>
-    <row r="43" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="A43" s="9" t="s">
         <v>4</v>
       </c>
@@ -5546,7 +6819,7 @@
         <v>47648.850069999993</v>
       </c>
     </row>
-    <row r="44" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="A44" s="7" t="s">
         <v>4</v>
       </c>
@@ -5662,7 +6935,7 @@
         <v>42.97566128057727</v>
       </c>
     </row>
-    <row r="45" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="A45" s="7" t="s">
         <v>4</v>
       </c>
@@ -5778,7 +7051,7 @@
         <v>506.32038763934003</v>
       </c>
     </row>
-    <row r="46" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="A46" s="9" t="s">
         <v>4</v>
       </c>
@@ -5894,7 +7167,7 @@
         <v>2251.2610030000001</v>
       </c>
     </row>
-    <row r="47" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="A47" s="7" t="s">
         <v>4</v>
       </c>
@@ -6010,7 +7283,7 @@
         <v>9.1804928354627915</v>
       </c>
     </row>
-    <row r="48" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="A48" s="7" t="s">
         <v>4</v>
       </c>
@@ -6126,7 +7399,7 @@
         <v>105.35282617770723</v>
       </c>
     </row>
-    <row r="49" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="A49" s="9" t="s">
         <v>4</v>
       </c>
@@ -6242,7 +7515,7 @@
         <v>451.55721</v>
       </c>
     </row>
-    <row r="50" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="A50" s="7" t="s">
         <v>4</v>
       </c>
@@ -6358,7 +7631,7 @@
         <v>106404.76000000001</v>
       </c>
     </row>
-    <row r="51" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="A51" s="7" t="s">
         <v>4</v>
       </c>
@@ -6474,7 +7747,7 @@
         <v>332597.9250000001</v>
       </c>
     </row>
-    <row r="52" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="A52" s="9" t="s">
         <v>4</v>
       </c>
@@ -6590,7 +7863,7 @@
         <v>761347.95000000007</v>
       </c>
     </row>
-    <row r="53" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="A53" s="7" t="s">
         <v>4</v>
       </c>
@@ -6706,7 +7979,7 @@
         <v>5980218.0048000002</v>
       </c>
     </row>
-    <row r="54" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="A54" s="7" t="s">
         <v>4</v>
       </c>
@@ -6822,7 +8095,7 @@
         <v>13745347.263000002</v>
       </c>
     </row>
-    <row r="55" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="A55" s="7" t="s">
         <v>4</v>
       </c>
@@ -6938,7 +8211,7 @@
         <v>39363915.267999999</v>
       </c>
     </row>
-    <row r="56" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="A56" s="11" t="s">
         <v>4</v>
       </c>
@@ -7054,7 +8327,7 @@
         <v>1903752.1620000005</v>
       </c>
     </row>
-    <row r="57" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="A57" s="12" t="s">
         <v>4</v>
       </c>
@@ -7170,7 +8443,7 @@
         <v>4488651.5760000004</v>
       </c>
     </row>
-    <row r="58" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="A58" s="9" t="s">
         <v>4</v>
       </c>
@@ -7286,7 +8559,7 @@
         <v>13079165.958000001</v>
       </c>
     </row>
-    <row r="59" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="A59" s="7" t="s">
         <v>4</v>
       </c>
@@ -7402,7 +8675,7 @@
         <v>74960.495999999999</v>
       </c>
     </row>
-    <row r="60" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="A60" s="7" t="s">
         <v>4</v>
       </c>
@@ -7518,7 +8791,7 @@
         <v>176055.57</v>
       </c>
     </row>
-    <row r="61" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="A61" s="7" t="s">
         <v>4</v>
       </c>
@@ -7634,7 +8907,7 @@
         <v>514619.48</v>
       </c>
     </row>
-    <row r="62" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="A62" s="11" t="s">
         <v>4</v>
       </c>
@@ -7750,7 +9023,7 @@
         <v>132598.59912000003</v>
       </c>
     </row>
-    <row r="63" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="A63" s="12" t="s">
         <v>4</v>
       </c>
@@ -7866,7 +9139,7 @@
         <v>312498.63675000006</v>
       </c>
     </row>
-    <row r="64" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="A64" s="9" t="s">
         <v>4</v>
       </c>
@@ -7982,7 +9255,7 @@
         <v>914344.56740000006</v>
       </c>
     </row>
-    <row r="65" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="A65" s="7" t="s">
         <v>4</v>
       </c>
@@ -8098,7 +9371,7 @@
         <v>18984.560400000002</v>
       </c>
     </row>
-    <row r="66" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="A66" s="7" t="s">
         <v>4</v>
       </c>
@@ -8214,7 +9487,7 @@
         <v>42176.790900000015</v>
       </c>
     </row>
-    <row r="67" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="A67" s="12" t="s">
         <v>4</v>
       </c>
@@ -8330,7 +9603,7 @@
         <v>120376.20880000001</v>
       </c>
     </row>
-    <row r="68" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="A68" s="11" t="s">
         <v>4</v>
       </c>
@@ -8446,7 +9719,7 @@
         <v>4.6166384452199596</v>
       </c>
     </row>
-    <row r="69" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="A69" s="12" t="s">
         <v>4</v>
       </c>
@@ -8562,7 +9835,7 @@
         <v>35.42264405005524</v>
       </c>
     </row>
-    <row r="70" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="A70" s="9" t="s">
         <v>4</v>
       </c>
@@ -8678,7 +9951,7 @@
         <v>218.15391000000002</v>
       </c>
     </row>
-    <row r="71" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="A71" s="12" t="s">
         <v>4</v>
       </c>
@@ -8794,7 +10067,7 @@
         <v>8725.5646920000017</v>
       </c>
     </row>
-    <row r="72" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="A72" s="12" t="s">
         <v>4</v>
       </c>
@@ -8910,7 +10183,7 @@
         <v>20640.601935000002</v>
       </c>
     </row>
-    <row r="73" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="A73" s="12" t="s">
         <v>4</v>
       </c>
@@ -9026,7 +10299,7 @@
         <v>60456.601519999997</v>
       </c>
     </row>
-    <row r="74" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="A74" s="11" t="s">
         <v>4</v>
       </c>
@@ -9142,7 +10415,7 @@
         <v>39769.802280000004</v>
       </c>
     </row>
-    <row r="75" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="A75" s="12" t="s">
         <v>4</v>
       </c>
@@ -9258,7 +10531,7 @@
         <v>97691.704875000025</v>
       </c>
     </row>
-    <row r="76" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="A76" s="9" t="s">
         <v>4</v>
       </c>
@@ -9374,7 +10647,7 @@
         <v>280187.93210000003</v>
       </c>
     </row>
-    <row r="77" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="A77" s="7" t="s">
         <v>4</v>
       </c>
@@ -9490,7 +10763,7 @@
         <v>26.16095118957977</v>
       </c>
     </row>
-    <row r="78" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="A78" s="7" t="s">
         <v>4</v>
       </c>
@@ -9606,7 +10879,7 @@
         <v>171.09805427951204</v>
       </c>
     </row>
-    <row r="79" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="A79" s="7" t="s">
         <v>4</v>
       </c>
@@ -9722,7 +10995,7 @@
         <v>941.977396</v>
       </c>
     </row>
-    <row r="80" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="A80" s="11" t="s">
         <v>4</v>
       </c>
@@ -9838,7 +11111,7 @@
         <v>325149.29928000009</v>
       </c>
     </row>
-    <row r="81" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="A81" s="7" t="s">
         <v>4</v>
       </c>
@@ -9954,7 +11227,7 @@
         <v>769286.29500000027</v>
       </c>
     </row>
-    <row r="82" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="A82" s="9" t="s">
         <v>4</v>
       </c>
@@ -10070,7 +11343,7 @@
         <v>2253362.0795999998</v>
       </c>
     </row>
-    <row r="83" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="A83" s="7" t="s">
         <v>4</v>
       </c>
@@ -10186,7 +11459,7 @@
         <v>12904.612344000003</v>
       </c>
     </row>
-    <row r="84" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="A84" s="7" t="s">
         <v>4</v>
       </c>
@@ -10302,7 +11575,7 @@
         <v>30335.14017000001</v>
       </c>
     </row>
-    <row r="85" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="A85" s="7" t="s">
         <v>4</v>
       </c>
@@ -10418,7 +11691,7 @@
         <v>88693.548640000008</v>
       </c>
     </row>
-    <row r="86" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="A86" s="11" t="s">
         <v>4</v>
       </c>
@@ -10534,7 +11807,7 @@
         <v>1807.1997840000004</v>
       </c>
     </row>
-    <row r="87" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="A87" s="7" t="s">
         <v>4</v>
       </c>
@@ -10650,7 +11923,7 @@
         <v>4271.2612200000003</v>
       </c>
     </row>
-    <row r="88" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="A88" s="7" t="s">
         <v>4</v>
       </c>
@@ -10766,7 +12039,7 @@
         <v>12507.49084</v>
       </c>
     </row>
-    <row r="89" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="A89" s="11" t="s">
         <v>4</v>
       </c>
@@ -10882,7 +12155,7 @@
         <v>211.22107348087565</v>
       </c>
     </row>
-    <row r="90" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="A90" s="7" t="s">
         <v>4</v>
       </c>
@@ -10998,7 +12271,7 @@
         <v>1454.5562453006958</v>
       </c>
     </row>
-    <row r="91" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="A91" s="9" t="s">
         <v>4</v>
       </c>
@@ -11114,7 +12387,7 @@
         <v>8360.3290739999993</v>
       </c>
     </row>
-    <row r="92" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="A92" s="7" t="s">
         <v>4</v>
       </c>
@@ -11230,7 +12503,7 @@
         <v>6257.5718400000005</v>
       </c>
     </row>
-    <row r="93" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="A93" s="7" t="s">
         <v>4</v>
       </c>
@@ -11346,7 +12619,7 @@
         <v>14187.782565000001</v>
       </c>
     </row>
-    <row r="94" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="A94" s="9" t="s">
         <v>4</v>
       </c>
@@ -11462,7 +12735,7 @@
         <v>40599.002019999993</v>
       </c>
     </row>
-    <row r="95" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="A95" s="7" t="s">
         <v>4</v>
       </c>
@@ -11578,7 +12851,7 @@
         <v>34.052640839528429</v>
       </c>
     </row>
-    <row r="96" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="A96" s="7" t="s">
         <v>4</v>
       </c>
@@ -11694,7 +12967,7 @@
         <v>246.844588726171</v>
       </c>
     </row>
-    <row r="97" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="A97" s="9" t="s">
         <v>4</v>
       </c>
@@ -11810,7 +13083,7 @@
         <v>1434.2221160000001</v>
       </c>
     </row>
-    <row r="98" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="A98" s="7" t="s">
         <v>4</v>
       </c>
@@ -11926,7 +13199,7 @@
         <v>7.0236037884542979</v>
       </c>
     </row>
-    <row r="99" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="A99" s="7" t="s">
         <v>4</v>
       </c>
@@ -12042,7 +13315,7 @@
         <v>49.012463465485233</v>
       </c>
     </row>
-    <row r="100" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="A100" s="9" t="s">
         <v>4</v>
       </c>
@@ -12158,7 +13431,7 @@
         <v>286.396928</v>
       </c>
     </row>
-    <row r="101" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="A101" s="7" t="s">
         <v>4</v>
       </c>
@@ -12274,7 +13547,7 @@
         <v>89626.680000000008</v>
       </c>
     </row>
-    <row r="102" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="A102" s="7" t="s">
         <v>4</v>
       </c>
@@ -12390,7 +13663,7 @@
         <v>210501.22500000003</v>
       </c>
     </row>
-    <row r="103" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="A103" s="9" t="s">
         <v>4</v>
       </c>
@@ -12506,7 +13779,7 @@
         <v>615305.9</v>
       </c>
     </row>
-    <row r="104" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="A104" s="7" t="s">
         <v>4</v>
       </c>
@@ -12622,7 +13895,7 @@
         <v>999119.41119999997</v>
       </c>
     </row>
-    <row r="105" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="A105" s="7" t="s">
         <v>4</v>
       </c>
@@ -12738,7 +14011,7 @@
         <v>6642948.4560000012</v>
       </c>
     </row>
-    <row r="106" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="A106" s="7" t="s">
         <v>4</v>
       </c>
@@ -12854,7 +14127,7 @@
         <v>6962222.8200000003</v>
       </c>
     </row>
-    <row r="107" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="A107" s="11" t="s">
         <v>4</v>
       </c>
@@ -12970,7 +14243,7 @@
         <v>354658.10560000001</v>
       </c>
     </row>
-    <row r="108" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="A108" s="12" t="s">
         <v>4</v>
       </c>
@@ -13086,7 +14359,7 @@
         <v>2573354.4479999999</v>
       </c>
     </row>
-    <row r="109" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="A109" s="9" t="s">
         <v>4</v>
       </c>
@@ -13202,7 +14475,7 @@
         <v>3137912.5924999998</v>
       </c>
     </row>
-    <row r="110" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="A110" s="7" t="s">
         <v>4</v>
       </c>
@@ -13318,7 +14591,7 @@
         <v>14032.575999999999</v>
       </c>
     </row>
-    <row r="111" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="A111" s="7" t="s">
         <v>4</v>
       </c>
@@ -13434,7 +14707,7 @@
         <v>102117.24</v>
       </c>
     </row>
-    <row r="112" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="A112" s="7" t="s">
         <v>4</v>
       </c>
@@ -13550,7 +14823,7 @@
         <v>122144.26</v>
       </c>
     </row>
-    <row r="113" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="A113" s="11" t="s">
         <v>4</v>
       </c>
@@ -13666,7 +14939,7 @@
         <v>24258.05312</v>
       </c>
     </row>
-    <row r="114" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="A114" s="12" t="s">
         <v>4</v>
       </c>
@@ -13782,7 +15055,7 @@
         <v>177772.79520000002</v>
       </c>
     </row>
-    <row r="115" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="A115" s="9" t="s">
         <v>4</v>
       </c>
@@ -13898,7 +15171,7 @@
         <v>215186.32240000003</v>
       </c>
     </row>
-    <row r="116" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="A116" s="7" t="s">
         <v>4</v>
       </c>
@@ -14014,7 +15287,7 @@
         <v>3251.89696</v>
       </c>
     </row>
-    <row r="117" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="A117" s="7" t="s">
         <v>4</v>
       </c>
@@ -14130,7 +15403,7 @@
         <v>20423.448</v>
       </c>
     </row>
-    <row r="118" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="A118" s="12" t="s">
         <v>4</v>
       </c>
@@ -14246,7 +15519,7 @@
         <v>16808.112299999997</v>
       </c>
     </row>
-    <row r="119" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="A119" s="11" t="s">
         <v>4</v>
       </c>
@@ -14362,7 +15635,7 @@
         <v>1.5068676903757965</v>
       </c>
     </row>
-    <row r="120" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="A120" s="12" t="s">
         <v>4</v>
       </c>
@@ -14478,7 +15751,7 @@
         <v>44.968913357461595</v>
       </c>
     </row>
-    <row r="121" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="A121" s="9" t="s">
         <v>4</v>
       </c>
@@ -14594,7 +15867,7 @@
         <v>140.73142999999999</v>
       </c>
     </row>
-    <row r="122" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="A122" s="12" t="s">
         <v>4</v>
       </c>
@@ -14710,7 +15983,7 @@
         <v>1544.4985280000001</v>
       </c>
     </row>
-    <row r="123" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="A123" s="12" t="s">
         <v>4</v>
       </c>
@@ -14826,7 +16099,7 @@
         <v>11410.491600000001</v>
       </c>
     </row>
-    <row r="124" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="A124" s="12" t="s">
         <v>4</v>
       </c>
@@ -14942,7 +16215,7 @@
         <v>13984.190115000001</v>
       </c>
     </row>
-    <row r="125" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="A125" s="11" t="s">
         <v>4</v>
       </c>
@@ -15058,7 +16331,7 @@
         <v>6766.1420799999996</v>
       </c>
     </row>
-    <row r="126" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="A126" s="12" t="s">
         <v>4</v>
       </c>
@@ -15174,7 +16447,7 @@
         <v>49771.054800000005</v>
       </c>
     </row>
-    <row r="127" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="A127" s="9" t="s">
         <v>4</v>
       </c>
@@ -15290,7 +16563,7 @@
         <v>73180.343600000007</v>
       </c>
     </row>
-    <row r="128" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="A128" s="7" t="s">
         <v>4</v>
       </c>
@@ -15406,7 +16679,7 @@
         <v>5.3035833416167755</v>
       </c>
     </row>
-    <row r="129" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="A129" s="7" t="s">
         <v>4</v>
       </c>
@@ -15522,7 +16795,7 @@
         <v>140.59246474976496</v>
       </c>
     </row>
-    <row r="130" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="A130" s="7" t="s">
         <v>4</v>
       </c>
@@ -15638,7 +16911,7 @@
         <v>408.12114700000001</v>
       </c>
     </row>
-    <row r="131" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="A131" s="11" t="s">
         <v>4</v>
       </c>
@@ -15754,7 +17027,7 @@
         <v>58625.662079999995</v>
       </c>
     </row>
-    <row r="132" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="A132" s="7" t="s">
         <v>4</v>
       </c>
@@ -15870,7 +17143,7 @@
         <v>433154.69280000008</v>
       </c>
     </row>
-    <row r="133" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="A133" s="9" t="s">
         <v>4</v>
       </c>
@@ -15986,7 +17259,7 @@
         <v>532416.20810000005</v>
       </c>
     </row>
-    <row r="134" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="A134" s="7" t="s">
         <v>4</v>
       </c>
@@ -16102,7 +17375,7 @@
         <v>2399.5704960000003</v>
       </c>
     </row>
-    <row r="135" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="A135" s="7" t="s">
         <v>4</v>
       </c>
@@ -16218,7 +17491,7 @@
         <v>17493.127200000003</v>
       </c>
     </row>
-    <row r="136" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="A136" s="7" t="s">
         <v>4</v>
       </c>
@@ -16334,7 +17607,7 @@
         <v>20984.914929999999</v>
       </c>
     </row>
-    <row r="137" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="A137" s="11" t="s">
         <v>4</v>
       </c>
@@ -16450,7 +17723,7 @@
         <v>322.13913600000001</v>
       </c>
     </row>
-    <row r="138" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="A138" s="7" t="s">
         <v>4</v>
       </c>
@@ -16566,7 +17839,7 @@
         <v>2375.3358000000003</v>
       </c>
     </row>
-    <row r="139" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="A139" s="7" t="s">
         <v>4</v>
       </c>
@@ -16682,7 +17955,7 @@
         <v>2902.2538299999997</v>
       </c>
     </row>
-    <row r="140" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="A140" s="11" t="s">
         <v>4</v>
       </c>
@@ -16798,7 +18071,7 @@
         <v>52.031254955917234</v>
       </c>
     </row>
-    <row r="141" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="A141" s="7" t="s">
         <v>4</v>
       </c>
@@ -16914,7 +18187,7 @@
         <v>1431.2519665150705</v>
       </c>
     </row>
-    <row r="142" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="A142" s="9" t="s">
         <v>4</v>
       </c>
@@ -17030,7 +18303,7 @@
         <v>4282.4839679999995</v>
       </c>
     </row>
-    <row r="143" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="A143" s="7" t="s">
         <v>4</v>
       </c>
@@ -17146,7 +18419,7 @@
         <v>1102.4723839999999</v>
       </c>
     </row>
-    <row r="144" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="A144" s="7" t="s">
         <v>4</v>
       </c>
@@ -17262,7 +18535,7 @@
         <v>7210.3651200000004</v>
       </c>
     </row>
-    <row r="145" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="A145" s="9" t="s">
         <v>4</v>
       </c>
@@ -17378,7 +18651,7 @@
         <v>7049.8480499999996</v>
       </c>
     </row>
-    <row r="146" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="A146" s="7" t="s">
         <v>4</v>
       </c>
@@ -17494,7 +18767,7 @@
         <v>8.9230204410488394</v>
       </c>
     </row>
-    <row r="147" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="A147" s="7" t="s">
         <v>4</v>
       </c>
@@ -17610,7 +18883,7 @@
         <v>259.47579891316906</v>
       </c>
     </row>
-    <row r="148" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="A148" s="9" t="s">
         <v>4</v>
       </c>
@@ -17726,7 +18999,7 @@
         <v>817.03888699999993</v>
       </c>
     </row>
-    <row r="149" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="A149" s="7" t="s">
         <v>4</v>
       </c>
@@ -17842,7 +19115,7 @@
         <v>2.1568890470084936</v>
       </c>
     </row>
-    <row r="150" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="A150" s="7" t="s">
         <v>4</v>
       </c>
@@ -17958,7 +19231,7 @@
         <v>56.340362712221996</v>
       </c>
     </row>
-    <row r="151" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="A151" s="9" t="s">
         <v>4</v>
       </c>
@@ -18074,7 +19347,7 @@
         <v>165.16028199999997</v>
       </c>
     </row>
-    <row r="152" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="A152" s="7" t="s">
         <v>4</v>
       </c>
@@ -18190,7 +19463,7 @@
         <v>16778.080000000002</v>
       </c>
     </row>
-    <row r="153" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="A153" s="7" t="s">
         <v>4</v>
       </c>
@@ -18306,7 +19579,7 @@
         <v>122096.70000000003</v>
       </c>
     </row>
-    <row r="154" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="A154" s="9" t="s">
         <v>4</v>
       </c>
@@ -18422,7 +19695,7 @@
         <v>146042.04999999999</v>
       </c>
     </row>
-    <row r="155" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="A155" s="7" t="s">
         <v>8</v>
       </c>
@@ -18538,7 +19811,7 @@
         <v>27366090.344000001</v>
       </c>
     </row>
-    <row r="156" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="A156" s="7" t="s">
         <v>8</v>
       </c>
@@ -18654,7 +19927,7 @@
         <v>47160348.913434103</v>
       </c>
     </row>
-    <row r="157" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="A157" s="7" t="s">
         <v>8</v>
       </c>
@@ -18770,7 +20043,7 @@
         <v>124890679.0418403</v>
       </c>
     </row>
-    <row r="158" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="A158" s="11" t="s">
         <v>8</v>
       </c>
@@ -18886,7 +20159,7 @@
         <v>9159131.1559999995</v>
       </c>
     </row>
-    <row r="159" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="A159" s="12" t="s">
         <v>8</v>
       </c>
@@ -19002,7 +20275,7 @@
         <v>16170176.68596803</v>
       </c>
     </row>
-    <row r="160" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="A160" s="9" t="s">
         <v>8</v>
       </c>
@@ -19118,7 +20391,7 @@
         <v>44279193.631457068</v>
       </c>
     </row>
-    <row r="161" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="A161" s="7" t="s">
         <v>8</v>
       </c>
@@ -19234,7 +20507,7 @@
         <v>370715.47199999989</v>
       </c>
     </row>
-    <row r="162" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="A162" s="7" t="s">
         <v>8</v>
       </c>
@@ -19350,7 +20623,7 @@
         <v>653720.41667257284</v>
       </c>
     </row>
-    <row r="163" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="A163" s="7" t="s">
         <v>8</v>
       </c>
@@ -19466,7 +20739,7 @@
         <v>1783245.2494022341</v>
       </c>
     </row>
-    <row r="164" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="A164" s="11" t="s">
         <v>8</v>
       </c>
@@ -19582,7 +20855,7 @@
         <v>637987.92728000018</v>
       </c>
     </row>
-    <row r="165" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="A165" s="12" t="s">
         <v>8</v>
       </c>
@@ -19698,7 +20971,7 @@
         <v>1133412.5670782027</v>
       </c>
     </row>
-    <row r="166" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="A166" s="9" t="s">
         <v>8</v>
       </c>
@@ -19814,7 +21087,7 @@
         <v>3121854.4881183472</v>
       </c>
     </row>
-    <row r="167" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="A167" s="7" t="s">
         <v>8</v>
       </c>
@@ -19930,7 +21203,7 @@
         <v>98440.51056000001</v>
       </c>
     </row>
-    <row r="168" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="A168" s="7" t="s">
         <v>8</v>
       </c>
@@ -20046,7 +21319,7 @@
         <v>164488.08779328375</v>
       </c>
     </row>
-    <row r="169" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="A169" s="12" t="s">
         <v>8</v>
       </c>
@@ -20162,7 +21435,7 @@
         <v>413630.68857061927</v>
       </c>
     </row>
-    <row r="170" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="A170" s="11" t="s">
         <v>8</v>
       </c>
@@ -20278,7 +21551,7 @@
         <v>30.117727928468021</v>
       </c>
     </row>
-    <row r="171" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="A171" s="12" t="s">
         <v>8</v>
       </c>
@@ -20394,7 +21667,7 @@
         <v>174.77869075068557</v>
       </c>
     </row>
-    <row r="172" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="A172" s="9" t="s">
         <v>8</v>
       </c>
@@ -20510,7 +21783,7 @@
         <v>1095.7253407821711</v>
       </c>
     </row>
-    <row r="173" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="A173" s="12" t="s">
         <v>8</v>
       </c>
@@ -20626,7 +21899,7 @@
         <v>40467.042327999989</v>
       </c>
     </row>
-    <row r="174" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="A174" s="12" t="s">
         <v>8</v>
       </c>
@@ -20742,7 +22015,7 @@
         <v>72590.315516328919</v>
       </c>
     </row>
-    <row r="175" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="A175" s="12" t="s">
         <v>8</v>
       </c>
@@ -20858,7 +22131,7 @@
         <v>202404.30265467128</v>
       </c>
     </row>
-    <row r="176" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="A176" s="11" t="s">
         <v>8</v>
       </c>
@@ -20974,7 +22247,7 @@
         <v>139096.51292000001</v>
       </c>
     </row>
-    <row r="177" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="A177" s="12" t="s">
         <v>8</v>
       </c>
@@ -21090,7 +22363,7 @@
         <v>257387.07486142215</v>
       </c>
     </row>
-    <row r="178" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="A178" s="9" t="s">
         <v>8</v>
       </c>
@@ -21206,7 +22479,7 @@
         <v>762715.71495562524</v>
       </c>
     </row>
-    <row r="179" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="A179" s="7" t="s">
         <v>8</v>
       </c>
@@ -21322,7 +22595,7 @@
         <v>119.16800207063673</v>
       </c>
     </row>
-    <row r="180" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="A180" s="7" t="s">
         <v>8</v>
       </c>
@@ -21438,7 +22711,7 @@
         <v>628.75797739398286</v>
       </c>
     </row>
-    <row r="181" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="A181" s="7" t="s">
         <v>8</v>
       </c>
@@ -21554,7 +22827,7 @@
         <v>3665.7631219452978</v>
       </c>
     </row>
-    <row r="182" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="A182" s="11" t="s">
         <v>8</v>
       </c>
@@ -21670,7 +22943,7 @@
         <v>1530028.0323200002</v>
       </c>
     </row>
-    <row r="183" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="A183" s="7" t="s">
         <v>8</v>
       </c>
@@ -21786,7 +23059,7 @@
         <v>2737107.4318523463</v>
       </c>
     </row>
-    <row r="184" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="A184" s="9" t="s">
         <v>8</v>
       </c>
@@ -21902,7 +23175,7 @@
         <v>7608258.7851542272</v>
       </c>
     </row>
-    <row r="185" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="A185" s="7" t="s">
         <v>8</v>
       </c>
@@ -22018,7 +23291,7 @@
         <v>63331.284496000015</v>
       </c>
     </row>
-    <row r="186" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="A186" s="7" t="s">
         <v>8</v>
       </c>
@@ -22134,7 +23407,7 @@
         <v>111902.27047685142</v>
       </c>
     </row>
-    <row r="187" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="A187" s="7" t="s">
         <v>8</v>
       </c>
@@ -22250,7 +23523,7 @@
         <v>306049.66976000089</v>
       </c>
     </row>
-    <row r="188" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="A188" s="11" t="s">
         <v>8</v>
       </c>
@@ -22366,7 +23639,7 @@
         <v>8449.276576000002</v>
       </c>
     </row>
-    <row r="189" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="A189" s="7" t="s">
         <v>8</v>
       </c>
@@ -22482,7 +23755,7 @@
         <v>15123.2261824988</v>
       </c>
     </row>
-    <row r="190" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="A190" s="7" t="s">
         <v>8</v>
       </c>
@@ -22598,7 +23871,7 @@
         <v>42051.840446322305</v>
       </c>
     </row>
-    <row r="191" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="A191" s="11" t="s">
         <v>8</v>
       </c>
@@ -22714,7 +23987,7 @@
         <v>1114.5133863095375</v>
       </c>
     </row>
-    <row r="192" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="A192" s="7" t="s">
         <v>8</v>
       </c>
@@ -22830,7 +24103,7 @@
         <v>6079.824585690144</v>
       </c>
     </row>
-    <row r="193" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="A193" s="9" t="s">
         <v>8</v>
       </c>
@@ -22946,7 +24219,7 @@
         <v>36440.509159854206</v>
       </c>
     </row>
-    <row r="194" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="A194" s="7" t="s">
         <v>8</v>
       </c>
@@ -23062,7 +24335,7 @@
         <v>31217.887560000006</v>
       </c>
     </row>
-    <row r="195" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="A195" s="7" t="s">
         <v>8</v>
       </c>
@@ -23178,7 +24451,7 @@
         <v>52858.601596576133</v>
       </c>
     </row>
-    <row r="196" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="A196" s="9" t="s">
         <v>8</v>
       </c>
@@ -23294,7 +24567,7 @@
         <v>136194.63295189504</v>
       </c>
     </row>
-    <row r="197" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="A197" s="7" t="s">
         <v>8</v>
       </c>
@@ -23410,7 +24683,7 @@
         <v>170.33803552522292</v>
       </c>
     </row>
-    <row r="198" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="A198" s="7" t="s">
         <v>8</v>
       </c>
@@ -23526,7 +24799,7 @@
         <v>987.3180996089427</v>
       </c>
     </row>
-    <row r="199" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="A199" s="9" t="s">
         <v>8</v>
       </c>
@@ -23642,7 +24915,7 @@
         <v>6207.0219063829945</v>
       </c>
     </row>
-    <row r="200" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="A200" s="7" t="s">
         <v>8</v>
       </c>
@@ -23758,7 +25031,7 @@
         <v>46.263820941459258</v>
       </c>
     </row>
-    <row r="201" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="A201" s="7" t="s">
         <v>8</v>
       </c>
@@ -23874,7 +25147,7 @@
         <v>239.92479213790318</v>
       </c>
     </row>
-    <row r="202" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="A202" s="9" t="s">
         <v>8</v>
       </c>
@@ -23990,7 +25263,7 @@
         <v>1382.6368525146945</v>
       </c>
     </row>
-    <row r="203" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="A203" s="7" t="s">
         <v>8</v>
       </c>
@@ -24106,7 +25379,7 @@
         <v>443246.76</v>
       </c>
     </row>
-    <row r="204" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="A204" s="7" t="s">
         <v>8</v>
       </c>
@@ -24222,7 +25495,7 @@
         <v>781622.23732590221</v>
       </c>
     </row>
-    <row r="205" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="A205" s="9" t="s">
         <v>8</v>
       </c>
@@ -24338,7 +25611,7 @@
         <v>2132141.0590678882</v>
       </c>
     </row>
-    <row r="206" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="A206" s="7" t="s">
         <v>8</v>
       </c>
@@ -24454,7 +25727,7 @@
         <v>24558974.976</v>
       </c>
     </row>
-    <row r="207" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="A207" s="7" t="s">
         <v>8</v>
       </c>
@@ -24570,7 +25843,7 @@
         <v>41032862.101434097</v>
       </c>
     </row>
-    <row r="208" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="A208" s="7" t="s">
         <v>8</v>
       </c>
@@ -24686,7 +25959,7 @@
         <v>114431456.28984028</v>
       </c>
     </row>
-    <row r="209" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="A209" s="11" t="s">
         <v>8</v>
       </c>
@@ -24802,7 +26075,7 @@
         <v>8168309.3120000008</v>
       </c>
     </row>
-    <row r="210" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="A210" s="12" t="s">
         <v>8</v>
       </c>
@@ -24918,7 +26191,7 @@
         <v>13759540.78896803</v>
       </c>
     </row>
-    <row r="211" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="A211" s="9" t="s">
         <v>8</v>
       </c>
@@ -25034,7 +26307,7 @@
         <v>39933928.135457061</v>
       </c>
     </row>
-    <row r="212" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="A212" s="7" t="s">
         <v>8</v>
       </c>
@@ -25150,7 +26423,7 @@
         <v>331488.51199999993</v>
       </c>
     </row>
-    <row r="213" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="A213" s="7" t="s">
         <v>8</v>
       </c>
@@ -25266,7 +26539,7 @@
         <v>558270.23267257272</v>
       </c>
     </row>
-    <row r="214" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="A214" s="7" t="s">
         <v>8</v>
       </c>
@@ -25382,7 +26655,7 @@
         <v>1612500.609402234</v>
       </c>
     </row>
-    <row r="215" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="A215" s="11" t="s">
         <v>8</v>
       </c>
@@ -25498,7 +26771,7 @@
         <v>570304.36608000007</v>
       </c>
     </row>
-    <row r="216" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="A216" s="12" t="s">
         <v>8</v>
       </c>
@@ -25614,7 +26887,7 @@
         <v>967142.49655820278</v>
       </c>
     </row>
-    <row r="217" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="A217" s="9" t="s">
         <v>8</v>
       </c>
@@ -25730,7 +27003,7 @@
         <v>2823979.3281183471</v>
       </c>
     </row>
-    <row r="218" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="A218" s="7" t="s">
         <v>8</v>
       </c>
@@ -25846,7 +27119,7 @@
         <v>89213.647360000017</v>
       </c>
     </row>
-    <row r="219" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="A219" s="7" t="s">
         <v>8</v>
       </c>
@@ -25962,7 +27235,7 @@
         <v>145999.80215328373</v>
       </c>
     </row>
-    <row r="220" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="A220" s="12" t="s">
         <v>8</v>
       </c>
@@ -26078,7 +27351,7 @@
         <v>384195.79737061926</v>
       </c>
     </row>
-    <row r="221" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="A221" s="11" t="s">
         <v>8</v>
       </c>
@@ -26194,7 +27467,7 @@
         <v>26.173830872469928</v>
       </c>
     </row>
-    <row r="222" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="A222" s="12" t="s">
         <v>8</v>
       </c>
@@ -26310,7 +27583,7 @@
         <v>130.69238427507179</v>
       </c>
     </row>
-    <row r="223" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="A223" s="9" t="s">
         <v>8</v>
       </c>
@@ -26426,7 +27699,7 @@
         <v>939.45687678217109</v>
       </c>
     </row>
-    <row r="224" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="A224" s="12" t="s">
         <v>8</v>
       </c>
@@ -26542,7 +27815,7 @@
         <v>36168.279168000001</v>
       </c>
     </row>
-    <row r="225" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="A225" s="12" t="s">
         <v>8</v>
       </c>
@@ -26658,7 +27931,7 @@
         <v>61913.382434328909</v>
       </c>
     </row>
-    <row r="226" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="A226" s="12" t="s">
         <v>8</v>
       </c>
@@ -26774,7 +28047,7 @@
         <v>183264.19969467132</v>
       </c>
     </row>
-    <row r="227" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="A227" s="11" t="s">
         <v>8</v>
       </c>
@@ -26890,7 +28163,7 @@
         <v>120416.80512000002</v>
       </c>
     </row>
-    <row r="228" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="A228" s="12" t="s">
         <v>8</v>
       </c>
@@ -27006,7 +28279,7 @@
         <v>209776.10808142219</v>
       </c>
     </row>
-    <row r="229" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="A229" s="9" t="s">
         <v>8</v>
       </c>
@@ -27122,7 +28395,7 @@
         <v>670940.47095562518</v>
       </c>
     </row>
-    <row r="230" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="A230" s="7" t="s">
         <v>8</v>
       </c>
@@ -27238,7 +28511,7 @@
         <v>105.04430790151267</v>
       </c>
     </row>
-    <row r="231" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="A231" s="7" t="s">
         <v>8</v>
       </c>
@@ -27354,7 +28627,7 @@
         <v>492.39238832283786</v>
       </c>
     </row>
-    <row r="232" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="A232" s="7" t="s">
         <v>8</v>
       </c>
@@ -27470,7 +28743,7 @@
         <v>3196.9577299452981</v>
       </c>
     </row>
-    <row r="233" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="A233" s="11" t="s">
         <v>8</v>
       </c>
@@ -27586,7 +28859,7 @@
         <v>1366741.54752</v>
       </c>
     </row>
-    <row r="234" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="A234" s="7" t="s">
         <v>8</v>
       </c>
@@ -27702,7 +28975,7 @@
         <v>2331506.3999723466</v>
       </c>
     </row>
-    <row r="235" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="A235" s="9" t="s">
         <v>8</v>
       </c>
@@ -27818,7 +29091,7 @@
         <v>6879067.8171542268</v>
       </c>
     </row>
-    <row r="236" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="A236" s="7" t="s">
         <v>8</v>
       </c>
@@ -27934,7 +29207,7 @@
         <v>56626.885376000013</v>
       </c>
     </row>
-    <row r="237" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="A237" s="7" t="s">
         <v>8</v>
       </c>
@@ -28050,7 +29323,7 @@
         <v>95549.163952851435</v>
       </c>
     </row>
-    <row r="238" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="A238" s="7" t="s">
         <v>8</v>
       </c>
@@ -28166,7 +29439,7 @@
         <v>276789.23504000087</v>
       </c>
     </row>
-    <row r="239" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="A239" s="11" t="s">
         <v>8</v>
       </c>
@@ -28282,7 +29555,7 @@
         <v>7552.1730560000005</v>
       </c>
     </row>
-    <row r="240" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="A240" s="7" t="s">
         <v>8</v>
       </c>
@@ -28398,7 +29671,7 @@
         <v>12900.896898498801</v>
       </c>
     </row>
-    <row r="241" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="A241" s="7" t="s">
         <v>8</v>
       </c>
@@ -28514,7 +29787,7 @@
         <v>38069.036126322302</v>
       </c>
     </row>
-    <row r="242" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="A242" s="11" t="s">
         <v>8</v>
       </c>
@@ -28630,7 +29903,7 @@
         <v>976.80736816057788</v>
       </c>
     </row>
-    <row r="243" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="A243" s="7" t="s">
         <v>8</v>
       </c>
@@ -28746,7 +30019,7 @@
         <v>4685.8518102516273</v>
       </c>
     </row>
-    <row r="244" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="A244" s="9" t="s">
         <v>8</v>
       </c>
@@ -28862,7 +30135,7 @@
         <v>31590.990199854201</v>
       </c>
     </row>
-    <row r="245" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="A245" s="7" t="s">
         <v>8</v>
       </c>
@@ -28978,7 +30251,7 @@
         <v>28104.460800000004</v>
       </c>
     </row>
-    <row r="246" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="A246" s="7" t="s">
         <v>8</v>
       </c>
@@ -29094,7 +30367,7 @@
         <v>46239.338836576135</v>
       </c>
     </row>
-    <row r="247" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="A247" s="9" t="s">
         <v>8</v>
       </c>
@@ -29210,7 +30483,7 @@
         <v>125073.96031189502</v>
       </c>
     </row>
-    <row r="248" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="A248" s="7" t="s">
         <v>8</v>
       </c>
@@ -29326,7 +30599,7 @@
         <v>146.9224372974646</v>
       </c>
     </row>
-    <row r="249" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="A249" s="7" t="s">
         <v>8</v>
       </c>
@@ -29442,7 +30715,7 @@
         <v>732.58379726080739</v>
       </c>
     </row>
-    <row r="250" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="A250" s="9" t="s">
         <v>8</v>
       </c>
@@ -29558,7 +30831,7 @@
         <v>5300.2193943829952</v>
       </c>
     </row>
-    <row r="251" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="A251" s="7" t="s">
         <v>8</v>
       </c>
@@ -29674,7 +30947,7 @@
         <v>40.482191749420167</v>
       </c>
     </row>
-    <row r="252" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="A252" s="7" t="s">
         <v>8</v>
       </c>
@@ -29790,7 +31063,7 @@
         <v>185.08867394631784</v>
       </c>
     </row>
-    <row r="253" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="A253" s="9" t="s">
         <v>8</v>
       </c>
@@ -29906,7 +31179,7 @@
         <v>1191.8482765146946</v>
       </c>
     </row>
-    <row r="254" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="A254" s="7" t="s">
         <v>8</v>
       </c>
@@ -30022,7 +31295,7 @@
         <v>396344.96</v>
       </c>
     </row>
-    <row r="255" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="A255" s="7" t="s">
         <v>8</v>
       </c>
@@ -30138,7 +31411,7 @@
         <v>667497.01732590224</v>
       </c>
     </row>
-    <row r="256" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="A256" s="9" t="s">
         <v>8</v>
       </c>
@@ -30254,7 +31527,7 @@
         <v>1927989.8590678885</v>
       </c>
     </row>
-    <row r="257" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="A257" s="7" t="s">
         <v>8</v>
       </c>
@@ -30370,7 +31643,7 @@
         <v>2807115.3679999993</v>
       </c>
     </row>
-    <row r="258" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="A258" s="7" t="s">
         <v>8</v>
       </c>
@@ -30486,7 +31759,7 @@
         <v>6127486.811999999</v>
       </c>
     </row>
-    <row r="259" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="A259" s="7" t="s">
         <v>8</v>
       </c>
@@ -30602,7 +31875,7 @@
         <v>10459222.752000002</v>
       </c>
     </row>
-    <row r="260" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="A260" s="11" t="s">
         <v>8</v>
       </c>
@@ -30718,7 +31991,7 @@
         <v>990821.84399999981</v>
       </c>
     </row>
-    <row r="261" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="A261" s="12" t="s">
         <v>8</v>
       </c>
@@ -30834,7 +32107,7 @@
         <v>2410635.8969999999</v>
       </c>
     </row>
-    <row r="262" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="A262" s="9" t="s">
         <v>8</v>
       </c>
@@ -30950,7 +32223,7 @@
         <v>4345265.4960000012</v>
       </c>
     </row>
-    <row r="263" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="A263" s="7" t="s">
         <v>8</v>
       </c>
@@ -31066,7 +32339,7 @@
         <v>39226.959999999992</v>
       </c>
     </row>
-    <row r="264" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="A264" s="7" t="s">
         <v>8</v>
       </c>
@@ -31182,7 +32455,7 @@
         <v>95450.183999999994</v>
       </c>
     </row>
-    <row r="265" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="A265" s="7" t="s">
         <v>8</v>
       </c>
@@ -31298,7 +32571,7 @@
         <v>170744.64</v>
       </c>
     </row>
-    <row r="266" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="A266" s="11" t="s">
         <v>8</v>
       </c>
@@ -31414,7 +32687,7 @@
         <v>67683.561199999982</v>
       </c>
     </row>
-    <row r="267" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="A267" s="12" t="s">
         <v>8</v>
       </c>
@@ -31530,7 +32803,7 @@
         <v>166270.07051999998</v>
       </c>
     </row>
-    <row r="268" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="A268" s="9" t="s">
         <v>8</v>
       </c>
@@ -31646,7 +32919,7 @@
         <v>297875.16000000003</v>
       </c>
     </row>
-    <row r="269" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="A269" s="7" t="s">
         <v>8</v>
       </c>
@@ -31762,7 +33035,7 @@
         <v>9226.8631999999961</v>
       </c>
     </row>
-    <row r="270" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="A270" s="7" t="s">
         <v>8</v>
       </c>
@@ -31878,7 +33151,7 @@
         <v>18488.285640000002</v>
       </c>
     </row>
-    <row r="271" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="A271" s="12" t="s">
         <v>8</v>
       </c>
@@ -31994,7 +33267,7 @@
         <v>29434.891200000002</v>
       </c>
     </row>
-    <row r="272" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="A272" s="11" t="s">
         <v>8</v>
       </c>
@@ -32110,7 +33383,7 @@
         <v>3.943897055998093</v>
       </c>
     </row>
-    <row r="273" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="A273" s="12" t="s">
         <v>8</v>
       </c>
@@ -32226,7 +33499,7 @@
         <v>44.086306475613782</v>
       </c>
     </row>
-    <row r="274" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="A274" s="9" t="s">
         <v>8</v>
       </c>
@@ -32342,7 +33615,7 @@
         <v>156.26846400000002</v>
       </c>
     </row>
-    <row r="275" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="A275" s="12" t="s">
         <v>8</v>
       </c>
@@ -32458,7 +33731,7 @@
         <v>4298.7631599999995</v>
       </c>
     </row>
-    <row r="276" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="A276" s="12" t="s">
         <v>8</v>
       </c>
@@ -32574,7 +33847,7 @@
         <v>10676.933082</v>
       </c>
     </row>
-    <row r="277" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="A277" s="12" t="s">
         <v>8</v>
       </c>
@@ -32690,7 +33963,7 @@
         <v>19140.10296</v>
       </c>
     </row>
-    <row r="278" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="A278" s="11" t="s">
         <v>8</v>
       </c>
@@ -32806,7 +34079,7 @@
         <v>18679.707799999996</v>
       </c>
     </row>
-    <row r="279" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="A279" s="12" t="s">
         <v>8</v>
       </c>
@@ -32922,7 +34195,7 @@
         <v>47610.966780000002</v>
       </c>
     </row>
-    <row r="280" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="A280" s="9" t="s">
         <v>8</v>
       </c>
@@ -33038,7 +34311,7 @@
         <v>91775.244000000021</v>
       </c>
     </row>
-    <row r="281" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="A281" s="7" t="s">
         <v>8</v>
       </c>
@@ -33154,7 +34427,7 @@
         <v>14.123694169124063</v>
       </c>
     </row>
-    <row r="282" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="A282" s="7" t="s">
         <v>8</v>
       </c>
@@ -33270,7 +34543,7 @@
         <v>136.36558907114505</v>
       </c>
     </row>
-    <row r="283" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="A283" s="7" t="s">
         <v>8</v>
       </c>
@@ -33386,7 +34659,7 @@
         <v>468.80539199999998</v>
       </c>
     </row>
-    <row r="284" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="A284" s="11" t="s">
         <v>8</v>
       </c>
@@ -33502,7 +34775,7 @@
         <v>163286.48479999998</v>
       </c>
     </row>
-    <row r="285" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="A285" s="7" t="s">
         <v>8</v>
       </c>
@@ -33618,7 +34891,7 @@
         <v>405601.03187999997</v>
       </c>
     </row>
-    <row r="286" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="A286" s="9" t="s">
         <v>8</v>
       </c>
@@ -33734,7 +35007,7 @@
         <v>729190.96800000011</v>
       </c>
     </row>
-    <row r="287" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="A287" s="7" t="s">
         <v>8</v>
       </c>
@@ -33850,7 +35123,7 @@
         <v>6704.39912</v>
       </c>
     </row>
-    <row r="288" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="A288" s="7" t="s">
         <v>8</v>
       </c>
@@ -33966,7 +35239,7 @@
         <v>16353.106524000001</v>
       </c>
     </row>
-    <row r="289" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="A289" s="7" t="s">
         <v>8</v>
       </c>
@@ -34082,7 +35355,7 @@
         <v>29260.434720000005</v>
       </c>
     </row>
-    <row r="290" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="A290" s="11" t="s">
         <v>8</v>
       </c>
@@ -34198,7 +35471,7 @@
         <v>897.10351999999989</v>
       </c>
     </row>
-    <row r="291" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="A291" s="7" t="s">
         <v>8</v>
       </c>
@@ -34314,7 +35587,7 @@
         <v>2222.3292840000004</v>
       </c>
     </row>
-    <row r="292" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="A292" s="7" t="s">
         <v>8</v>
       </c>
@@ -34430,7 +35703,7 @@
         <v>3982.8043200000002</v>
       </c>
     </row>
-    <row r="293" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="A293" s="11" t="s">
         <v>8</v>
       </c>
@@ -34546,7 +35819,7 @@
         <v>137.7060181489596</v>
       </c>
     </row>
-    <row r="294" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="A294" s="7" t="s">
         <v>8</v>
       </c>
@@ -34662,7 +35935,7 @@
         <v>1393.9727754385169</v>
       </c>
     </row>
-    <row r="295" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="A295" s="9" t="s">
         <v>8</v>
       </c>
@@ -34778,7 +36051,7 @@
         <v>4849.5189600000003</v>
       </c>
     </row>
-    <row r="296" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="A296" s="7" t="s">
         <v>8</v>
       </c>
@@ -34894,7 +36167,7 @@
         <v>3113.4267599999994</v>
       </c>
     </row>
-    <row r="297" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="A297" s="7" t="s">
         <v>8</v>
       </c>
@@ -35010,7 +36283,7 @@
         <v>6619.2627599999996</v>
       </c>
     </row>
-    <row r="298" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="A298" s="9" t="s">
         <v>8</v>
       </c>
@@ -35126,7 +36399,7 @@
         <v>11120.672640000003</v>
       </c>
     </row>
-    <row r="299" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="A299" s="7" t="s">
         <v>8</v>
       </c>
@@ -35242,7 +36515,7 @@
         <v>23.415598227758327</v>
       </c>
     </row>
-    <row r="300" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="A300" s="7" t="s">
         <v>8</v>
       </c>
@@ -35358,7 +36631,7 @@
         <v>254.73430234813534</v>
       </c>
     </row>
-    <row r="301" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="A301" s="9" t="s">
         <v>8</v>
       </c>
@@ -35474,7 +36747,7 @@
         <v>906.80251200000009</v>
       </c>
     </row>
-    <row r="302" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="A302" s="7" t="s">
         <v>8</v>
       </c>
@@ -35590,7 +36863,7 @@
         <v>5.7816291920390901</v>
       </c>
     </row>
-    <row r="303" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="A303" s="7" t="s">
         <v>8</v>
       </c>
@@ -35706,7 +36979,7 @@
         <v>54.836118191585349</v>
       </c>
     </row>
-    <row r="304" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="A304" s="9" t="s">
         <v>8</v>
       </c>
@@ -35822,7 +37095,7 @@
         <v>190.78857600000001</v>
       </c>
     </row>
-    <row r="305" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="A305" s="7" t="s">
         <v>8</v>
       </c>
@@ -35938,7 +37211,7 @@
         <v>46901.799999999996</v>
       </c>
     </row>
-    <row r="306" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="A306" s="7" t="s">
         <v>8</v>
       </c>
@@ -36054,7 +37327,7 @@
         <v>114125.22</v>
       </c>
     </row>
-    <row r="307" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="A307" s="9" t="s">
         <v>8</v>
       </c>
@@ -36170,7 +37443,7 @@
         <v>204151.2</v>
       </c>
     </row>
-    <row r="308" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="A308" s="7" t="s">
         <v>4</v>
       </c>
@@ -36286,7 +37559,7 @@
         <v>894656.57142857148</v>
       </c>
     </row>
-    <row r="309" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A309" s="7" t="s">
         <v>4</v>
       </c>
@@ -36302,107 +37575,107 @@
       <c r="E309" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F309" s="2">
+      <c r="F309" s="16">
         <v>493959.28571428574</v>
       </c>
-      <c r="G309" s="2">
+      <c r="G309" s="16">
         <v>591421.72767857136</v>
       </c>
-      <c r="H309" s="2">
+      <c r="H309" s="16">
         <v>688263.44196428568</v>
       </c>
-      <c r="I309" s="2">
+      <c r="I309" s="16">
         <v>784484.42857142841</v>
       </c>
-      <c r="J309" s="2">
+      <c r="J309" s="16">
         <v>880084.68750000012</v>
       </c>
-      <c r="K309" s="2">
+      <c r="K309" s="16">
         <v>975064.21874999988</v>
       </c>
-      <c r="L309" s="2">
+      <c r="L309" s="16">
         <v>1069423.0223214289</v>
       </c>
-      <c r="M309" s="2">
+      <c r="M309" s="16">
         <v>1163161.0982142857</v>
       </c>
-      <c r="N309" s="2">
+      <c r="N309" s="16">
         <v>1256278.4464285714</v>
       </c>
-      <c r="O309" s="2">
+      <c r="O309" s="16">
         <v>1348775.0669642857</v>
       </c>
-      <c r="P309" s="2">
+      <c r="P309" s="16">
         <v>1440650.9598214286</v>
       </c>
-      <c r="Q309" s="2">
+      <c r="Q309" s="16">
         <v>1531906.125</v>
       </c>
-      <c r="R309" s="2">
+      <c r="R309" s="16">
         <v>1622540.5625</v>
       </c>
-      <c r="S309" s="2">
+      <c r="S309" s="16">
         <v>1712554.2723214286</v>
       </c>
-      <c r="T309" s="2">
+      <c r="T309" s="16">
         <v>1801947.2544642857</v>
       </c>
-      <c r="U309" s="2">
+      <c r="U309" s="16">
         <v>1890719.5089285714</v>
       </c>
-      <c r="V309" s="2">
+      <c r="V309" s="16">
         <v>1978871.0357142857</v>
       </c>
-      <c r="W309" s="2">
+      <c r="W309" s="16">
         <v>2066401.8348214286</v>
       </c>
-      <c r="X309" s="2">
+      <c r="X309" s="16">
         <v>2153311.90625</v>
       </c>
-      <c r="Y309" s="2">
+      <c r="Y309" s="16">
         <v>2239601.25</v>
       </c>
-      <c r="Z309" s="2">
+      <c r="Z309" s="16">
         <v>2325269.8660714286</v>
       </c>
-      <c r="AA309" s="2">
+      <c r="AA309" s="16">
         <v>2410317.7544642859</v>
       </c>
-      <c r="AB309" s="2">
+      <c r="AB309" s="16">
         <v>2494744.9151785714</v>
       </c>
-      <c r="AC309" s="2">
+      <c r="AC309" s="16">
         <v>2578551.3482142859</v>
       </c>
-      <c r="AD309" s="2">
+      <c r="AD309" s="16">
         <v>2661737.0535714286</v>
       </c>
-      <c r="AE309" s="2">
+      <c r="AE309" s="16">
         <v>2744302.0312500005</v>
       </c>
-      <c r="AF309" s="2">
+      <c r="AF309" s="16">
         <v>2826246.28125</v>
       </c>
-      <c r="AG309" s="2">
+      <c r="AG309" s="16">
         <v>2907569.8035714286</v>
       </c>
-      <c r="AH309" s="2">
+      <c r="AH309" s="16">
         <v>2988272.5982142854</v>
       </c>
-      <c r="AI309" s="2">
+      <c r="AI309" s="16">
         <v>3068354.6651785714</v>
       </c>
-      <c r="AJ309" s="2">
+      <c r="AJ309" s="16">
         <v>3147816.0044642854</v>
       </c>
-      <c r="AK309" s="2">
+      <c r="AK309" s="16">
         <v>3226656.6160714286</v>
       </c>
-      <c r="AL309" s="2">
+      <c r="AL309" s="16">
         <v>3304876.5000000005</v>
       </c>
     </row>
-    <row r="310" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="A310" s="7" t="s">
         <v>4</v>
       </c>
@@ -36518,7 +37791,7 @@
         <v>10461866.785714285</v>
       </c>
     </row>
-    <row r="311" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="A311" s="11" t="s">
         <v>4</v>
       </c>
@@ -36634,7 +37907,7 @@
         <v>999910.2857142858</v>
       </c>
     </row>
-    <row r="312" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A312" s="12" t="s">
         <v>4</v>
       </c>
@@ -36650,107 +37923,107 @@
       <c r="E312" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F312" s="2">
+      <c r="F312" s="16">
         <v>552072.14285714296</v>
       </c>
-      <c r="G312" s="2">
+      <c r="G312" s="16">
         <v>661000.75446428568</v>
       </c>
-      <c r="H312" s="2">
+      <c r="H312" s="16">
         <v>769235.61160714296</v>
       </c>
-      <c r="I312" s="2">
+      <c r="I312" s="16">
         <v>876776.71428571432</v>
       </c>
-      <c r="J312" s="2">
+      <c r="J312" s="16">
         <v>983624.0625</v>
       </c>
-      <c r="K312" s="2">
+      <c r="K312" s="16">
         <v>1089777.6562499998</v>
       </c>
-      <c r="L312" s="2">
+      <c r="L312" s="16">
         <v>1195237.4955357146</v>
       </c>
-      <c r="M312" s="2">
+      <c r="M312" s="16">
         <v>1300003.5803571427</v>
       </c>
-      <c r="N312" s="2">
+      <c r="N312" s="16">
         <v>1404075.9107142859</v>
       </c>
-      <c r="O312" s="2">
+      <c r="O312" s="16">
         <v>1507454.486607143</v>
       </c>
-      <c r="P312" s="2">
+      <c r="P312" s="16">
         <v>1610139.3080357146</v>
       </c>
-      <c r="Q312" s="2">
+      <c r="Q312" s="16">
         <v>1712130.375</v>
       </c>
-      <c r="R312" s="2">
+      <c r="R312" s="16">
         <v>1813427.6875</v>
       </c>
-      <c r="S312" s="2">
+      <c r="S312" s="16">
         <v>1914031.2455357143</v>
       </c>
-      <c r="T312" s="2">
+      <c r="T312" s="16">
         <v>2013941.0491071427</v>
       </c>
-      <c r="U312" s="2">
+      <c r="U312" s="16">
         <v>2113157.0982142859</v>
       </c>
-      <c r="V312" s="2">
+      <c r="V312" s="16">
         <v>2211679.3928571427</v>
       </c>
-      <c r="W312" s="2">
+      <c r="W312" s="16">
         <v>2309507.933035715</v>
       </c>
-      <c r="X312" s="2">
+      <c r="X312" s="16">
         <v>2406642.71875</v>
       </c>
-      <c r="Y312" s="2">
+      <c r="Y312" s="16">
         <v>2503083.7500000005</v>
       </c>
-      <c r="Z312" s="2">
+      <c r="Z312" s="16">
         <v>2598831.0267857141</v>
       </c>
-      <c r="AA312" s="2">
+      <c r="AA312" s="16">
         <v>2693884.5491071427</v>
       </c>
-      <c r="AB312" s="2">
+      <c r="AB312" s="16">
         <v>2788244.3169642854</v>
       </c>
-      <c r="AC312" s="2">
+      <c r="AC312" s="16">
         <v>2881910.3303571432</v>
       </c>
-      <c r="AD312" s="2">
+      <c r="AD312" s="16">
         <v>2974882.5892857146</v>
       </c>
-      <c r="AE312" s="2">
+      <c r="AE312" s="16">
         <v>3067161.0937500005</v>
       </c>
-      <c r="AF312" s="2">
+      <c r="AF312" s="16">
         <v>3158745.84375</v>
       </c>
-      <c r="AG312" s="2">
+      <c r="AG312" s="16">
         <v>3249636.8392857146</v>
       </c>
-      <c r="AH312" s="2">
+      <c r="AH312" s="16">
         <v>3339834.0803571427</v>
       </c>
-      <c r="AI312" s="2">
+      <c r="AI312" s="16">
         <v>3429337.5669642859</v>
       </c>
-      <c r="AJ312" s="2">
+      <c r="AJ312" s="16">
         <v>3518147.2991071427</v>
       </c>
-      <c r="AK312" s="2">
+      <c r="AK312" s="16">
         <v>3606263.2767857146</v>
       </c>
-      <c r="AL312" s="2">
+      <c r="AL312" s="16">
         <v>3693685.5000000005</v>
       </c>
     </row>
-    <row r="313" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="A313" s="9" t="s">
         <v>4</v>
       </c>
@@ -36866,7 +38139,7 @@
         <v>11692674.642857142</v>
       </c>
     </row>
-    <row r="314" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="A314" s="7" t="s">
         <v>4</v>
       </c>
@@ -36982,7 +38255,7 @@
         <v>126304.45714285715</v>
       </c>
     </row>
-    <row r="315" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A315" s="7" t="s">
         <v>4</v>
       </c>
@@ -36998,107 +38271,107 @@
       <c r="E315" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F315" s="2">
+      <c r="F315" s="16">
         <v>69735.428571428565</v>
       </c>
-      <c r="G315" s="2">
+      <c r="G315" s="16">
         <v>83494.832142857151</v>
       </c>
-      <c r="H315" s="2">
+      <c r="H315" s="16">
         <v>97166.603571428554</v>
       </c>
-      <c r="I315" s="2">
+      <c r="I315" s="16">
         <v>110750.74285714285</v>
       </c>
-      <c r="J315" s="2">
+      <c r="J315" s="16">
         <v>124247.25</v>
       </c>
-      <c r="K315" s="2">
+      <c r="K315" s="16">
         <v>137656.12499999997</v>
       </c>
-      <c r="L315" s="2">
+      <c r="L315" s="16">
         <v>150977.36785714285</v>
       </c>
-      <c r="M315" s="2">
+      <c r="M315" s="16">
         <v>164210.97857142854</v>
       </c>
-      <c r="N315" s="2">
+      <c r="N315" s="16">
         <v>177356.95714285717</v>
       </c>
-      <c r="O315" s="2">
+      <c r="O315" s="16">
         <v>190415.30357142855</v>
       </c>
-      <c r="P315" s="2">
+      <c r="P315" s="16">
         <v>203386.01785714287</v>
       </c>
-      <c r="Q315" s="2">
+      <c r="Q315" s="16">
         <v>216269.09999999998</v>
       </c>
-      <c r="R315" s="2">
+      <c r="R315" s="16">
         <v>229064.55</v>
       </c>
-      <c r="S315" s="2">
+      <c r="S315" s="16">
         <v>241772.36785714282</v>
       </c>
-      <c r="T315" s="2">
+      <c r="T315" s="16">
         <v>254392.55357142855</v>
       </c>
-      <c r="U315" s="2">
+      <c r="U315" s="16">
         <v>266925.10714285716</v>
       </c>
-      <c r="V315" s="2">
+      <c r="V315" s="16">
         <v>279370.0285714285</v>
       </c>
-      <c r="W315" s="2">
+      <c r="W315" s="16">
         <v>291727.31785714289</v>
       </c>
-      <c r="X315" s="2">
+      <c r="X315" s="16">
         <v>303996.97499999998</v>
       </c>
-      <c r="Y315" s="2">
+      <c r="Y315" s="16">
         <v>316179.00000000006</v>
       </c>
-      <c r="Z315" s="2">
+      <c r="Z315" s="16">
         <v>328273.3928571429</v>
       </c>
-      <c r="AA315" s="2">
+      <c r="AA315" s="16">
         <v>340280.15357142856</v>
       </c>
-      <c r="AB315" s="2">
+      <c r="AB315" s="16">
         <v>352199.28214285715</v>
       </c>
-      <c r="AC315" s="2">
+      <c r="AC315" s="16">
         <v>364030.77857142856</v>
       </c>
-      <c r="AD315" s="2">
+      <c r="AD315" s="16">
         <v>375774.64285714284</v>
       </c>
-      <c r="AE315" s="2">
+      <c r="AE315" s="16">
         <v>387430.875</v>
       </c>
-      <c r="AF315" s="2">
+      <c r="AF315" s="16">
         <v>398999.47499999998</v>
       </c>
-      <c r="AG315" s="2">
+      <c r="AG315" s="16">
         <v>410480.44285714289</v>
       </c>
-      <c r="AH315" s="2">
+      <c r="AH315" s="16">
         <v>421873.77857142856</v>
       </c>
-      <c r="AI315" s="2">
+      <c r="AI315" s="16">
         <v>433179.48214285716</v>
       </c>
-      <c r="AJ315" s="2">
+      <c r="AJ315" s="16">
         <v>444397.55357142852</v>
       </c>
-      <c r="AK315" s="2">
+      <c r="AK315" s="16">
         <v>455527.99285714288</v>
       </c>
-      <c r="AL315" s="2">
+      <c r="AL315" s="16">
         <v>466570.80000000005</v>
       </c>
     </row>
-    <row r="316" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="A316" s="7" t="s">
         <v>4</v>
       </c>
@@ -37214,7 +38487,7 @@
         <v>1476969.4285714284</v>
       </c>
     </row>
-    <row r="317" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="A317" s="11" t="s">
         <v>4</v>
       </c>
@@ -37330,7 +38603,7 @@
         <v>684149.14285714296</v>
       </c>
     </row>
-    <row r="318" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A318" s="12" t="s">
         <v>4</v>
       </c>
@@ -37346,107 +38619,107 @@
       <c r="E318" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F318" s="2">
+      <c r="F318" s="16">
         <v>377733.57142857148</v>
       </c>
-      <c r="G318" s="2">
+      <c r="G318" s="16">
         <v>452263.67410714284</v>
       </c>
-      <c r="H318" s="2">
+      <c r="H318" s="16">
         <v>526319.10267857148</v>
       </c>
-      <c r="I318" s="2">
+      <c r="I318" s="16">
         <v>599899.85714285716</v>
       </c>
-      <c r="J318" s="2">
+      <c r="J318" s="16">
         <v>673005.93750000012</v>
       </c>
-      <c r="K318" s="2">
+      <c r="K318" s="16">
         <v>745637.34374999988</v>
       </c>
-      <c r="L318" s="2">
+      <c r="L318" s="16">
         <v>817794.07589285728</v>
       </c>
-      <c r="M318" s="2">
+      <c r="M318" s="16">
         <v>889476.13392857136</v>
       </c>
-      <c r="N318" s="2">
+      <c r="N318" s="16">
         <v>960683.51785714296</v>
       </c>
-      <c r="O318" s="2">
+      <c r="O318" s="16">
         <v>1031416.2276785717</v>
       </c>
-      <c r="P318" s="2">
+      <c r="P318" s="16">
         <v>1101674.2633928573</v>
       </c>
-      <c r="Q318" s="2">
+      <c r="Q318" s="16">
         <v>1171457.6250000002</v>
       </c>
-      <c r="R318" s="2">
+      <c r="R318" s="16">
         <v>1240766.3125</v>
       </c>
-      <c r="S318" s="2">
+      <c r="S318" s="16">
         <v>1309600.3258928573</v>
       </c>
-      <c r="T318" s="2">
+      <c r="T318" s="16">
         <v>1377959.6651785714</v>
       </c>
-      <c r="U318" s="2">
+      <c r="U318" s="16">
         <v>1445844.3303571427</v>
       </c>
-      <c r="V318" s="2">
+      <c r="V318" s="16">
         <v>1513254.3214285716</v>
       </c>
-      <c r="W318" s="2">
+      <c r="W318" s="16">
         <v>1580189.6383928575</v>
       </c>
-      <c r="X318" s="2">
+      <c r="X318" s="16">
         <v>1646650.28125</v>
       </c>
-      <c r="Y318" s="2">
+      <c r="Y318" s="16">
         <v>1712636.2500000002</v>
       </c>
-      <c r="Z318" s="2">
+      <c r="Z318" s="16">
         <v>1778147.5446428573</v>
       </c>
-      <c r="AA318" s="2">
+      <c r="AA318" s="16">
         <v>1843184.1651785714</v>
       </c>
-      <c r="AB318" s="2">
+      <c r="AB318" s="16">
         <v>1907746.111607143</v>
       </c>
-      <c r="AC318" s="2">
+      <c r="AC318" s="16">
         <v>1971833.3839285718</v>
       </c>
-      <c r="AD318" s="2">
+      <c r="AD318" s="16">
         <v>2035445.9821428573</v>
       </c>
-      <c r="AE318" s="2">
+      <c r="AE318" s="16">
         <v>2098583.9062500005</v>
       </c>
-      <c r="AF318" s="2">
+      <c r="AF318" s="16">
         <v>2161247.15625</v>
       </c>
-      <c r="AG318" s="2">
+      <c r="AG318" s="16">
         <v>2223435.7321428573</v>
       </c>
-      <c r="AH318" s="2">
+      <c r="AH318" s="16">
         <v>2285149.6339285714</v>
       </c>
-      <c r="AI318" s="2">
+      <c r="AI318" s="16">
         <v>2346388.8616071432</v>
       </c>
-      <c r="AJ318" s="2">
+      <c r="AJ318" s="16">
         <v>2407153.4151785714</v>
       </c>
-      <c r="AK318" s="2">
+      <c r="AK318" s="16">
         <v>2467443.2946428573</v>
       </c>
-      <c r="AL318" s="2">
+      <c r="AL318" s="16">
         <v>2527258.5000000005</v>
       </c>
     </row>
-    <row r="319" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="A319" s="9" t="s">
         <v>4</v>
       </c>
@@ -37562,7 +38835,7 @@
         <v>8000251.0714285718</v>
       </c>
     </row>
-    <row r="320" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="A320" s="7" t="s">
         <v>4</v>
       </c>
@@ -37678,7 +38951,7 @@
         <v>110516.40000000001</v>
       </c>
     </row>
-    <row r="321" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A321" s="7" t="s">
         <v>4</v>
       </c>
@@ -37694,107 +38967,107 @@
       <c r="E321" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F321" s="2">
+      <c r="F321" s="16">
         <v>61018.499999999993</v>
       </c>
-      <c r="G321" s="2">
+      <c r="G321" s="16">
         <v>73057.978124999994</v>
       </c>
-      <c r="H321" s="2">
+      <c r="H321" s="16">
         <v>85020.778124999997</v>
       </c>
-      <c r="I321" s="2">
+      <c r="I321" s="16">
         <v>96906.9</v>
       </c>
-      <c r="J321" s="2">
+      <c r="J321" s="16">
         <v>108716.34375</v>
       </c>
-      <c r="K321" s="2">
+      <c r="K321" s="16">
         <v>120449.10937499999</v>
       </c>
-      <c r="L321" s="2">
+      <c r="L321" s="16">
         <v>132105.19687500002</v>
       </c>
-      <c r="M321" s="2">
+      <c r="M321" s="16">
         <v>143684.60624999998</v>
       </c>
-      <c r="N321" s="2">
+      <c r="N321" s="16">
         <v>155187.33750000002</v>
       </c>
-      <c r="O321" s="2">
+      <c r="O321" s="16">
         <v>166613.390625</v>
       </c>
-      <c r="P321" s="2">
+      <c r="P321" s="16">
         <v>177962.765625</v>
       </c>
-      <c r="Q321" s="2">
+      <c r="Q321" s="16">
         <v>189235.46250000002</v>
       </c>
-      <c r="R321" s="2">
+      <c r="R321" s="16">
         <v>200431.48124999998</v>
       </c>
-      <c r="S321" s="2">
+      <c r="S321" s="16">
         <v>211550.82187499999</v>
       </c>
-      <c r="T321" s="2">
+      <c r="T321" s="16">
         <v>222593.484375</v>
       </c>
-      <c r="U321" s="2">
+      <c r="U321" s="16">
         <v>233559.46874999997</v>
       </c>
-      <c r="V321" s="2">
+      <c r="V321" s="16">
         <v>244448.77499999999</v>
       </c>
-      <c r="W321" s="2">
+      <c r="W321" s="16">
         <v>255261.40312500001</v>
       </c>
-      <c r="X321" s="2">
+      <c r="X321" s="16">
         <v>265997.35312499997</v>
       </c>
-      <c r="Y321" s="2">
+      <c r="Y321" s="16">
         <v>276656.625</v>
       </c>
-      <c r="Z321" s="2">
+      <c r="Z321" s="16">
         <v>287239.21874999994</v>
       </c>
-      <c r="AA321" s="2">
+      <c r="AA321" s="16">
         <v>297745.13437500002</v>
       </c>
-      <c r="AB321" s="2">
+      <c r="AB321" s="16">
         <v>308174.37187499995</v>
       </c>
-      <c r="AC321" s="2">
+      <c r="AC321" s="16">
         <v>318526.93125000002</v>
       </c>
-      <c r="AD321" s="2">
+      <c r="AD321" s="16">
         <v>328802.81249999994</v>
       </c>
-      <c r="AE321" s="2">
+      <c r="AE321" s="16">
         <v>339002.015625</v>
       </c>
-      <c r="AF321" s="2">
+      <c r="AF321" s="16">
         <v>349124.54062499997</v>
       </c>
-      <c r="AG321" s="2">
+      <c r="AG321" s="16">
         <v>359170.38750000001</v>
       </c>
-      <c r="AH321" s="2">
+      <c r="AH321" s="16">
         <v>369139.55624999997</v>
       </c>
-      <c r="AI321" s="2">
+      <c r="AI321" s="16">
         <v>379032.046875</v>
       </c>
-      <c r="AJ321" s="2">
+      <c r="AJ321" s="16">
         <v>388847.859375</v>
       </c>
-      <c r="AK321" s="2">
+      <c r="AK321" s="16">
         <v>398586.99374999997</v>
       </c>
-      <c r="AL321" s="2">
+      <c r="AL321" s="16">
         <v>408249.45</v>
       </c>
     </row>
-    <row r="322" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="A322" s="12" t="s">
         <v>4</v>
       </c>
@@ -37910,7 +39183,7 @@
         <v>1292348.25</v>
       </c>
     </row>
-    <row r="323" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="A323" s="11" t="s">
         <v>4</v>
       </c>
@@ -38026,7 +39299,7 @@
         <v>68415.466867714291</v>
       </c>
     </row>
-    <row r="324" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A324" s="12" t="s">
         <v>4</v>
       </c>
@@ -38042,107 +39315,107 @@
       <c r="E324" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F324" s="2">
+      <c r="F324" s="16">
         <v>37776.845106344328</v>
       </c>
-      <c r="G324" s="2">
+      <c r="G324" s="16">
         <v>45230.612442089681</v>
       </c>
-      <c r="H324" s="2">
+      <c r="H324" s="16">
         <v>52636.920429015001</v>
       </c>
-      <c r="I324" s="2">
+      <c r="I324" s="16">
         <v>59995.764502478021</v>
       </c>
-      <c r="J324" s="2">
+      <c r="J324" s="16">
         <v>67307.140097836542</v>
       </c>
-      <c r="K324" s="2">
+      <c r="K324" s="16">
         <v>74571.042650448318</v>
       </c>
-      <c r="L324" s="2">
+      <c r="L324" s="16">
         <v>81787.467595671158</v>
       </c>
-      <c r="M324" s="2">
+      <c r="M324" s="16">
         <v>88956.410368862751</v>
       </c>
-      <c r="N324" s="2">
+      <c r="N324" s="16">
         <v>96077.866405380963</v>
       </c>
-      <c r="O324" s="2">
+      <c r="O324" s="16">
         <v>103151.83114058353</v>
       </c>
-      <c r="P324" s="2">
+      <c r="P324" s="16">
         <v>110178.30000982819</v>
       </c>
-      <c r="Q324" s="2">
+      <c r="Q324" s="16">
         <v>117157.26844847277</v>
       </c>
-      <c r="R324" s="2">
+      <c r="R324" s="16">
         <v>124088.73189187498</v>
       </c>
-      <c r="S324" s="2">
+      <c r="S324" s="16">
         <v>130973.00027655027</v>
       </c>
-      <c r="T324" s="2">
+      <c r="T324" s="16">
         <v>137809.8072665651</v>
       </c>
-      <c r="U324" s="2">
+      <c r="U324" s="16">
         <v>144599.15110127171</v>
       </c>
-      <c r="V324" s="2">
+      <c r="V324" s="16">
         <v>151341.03002002253</v>
       </c>
-      <c r="W324" s="2">
+      <c r="W324" s="16">
         <v>158035.44226216973</v>
       </c>
-      <c r="X324" s="2">
+      <c r="X324" s="16">
         <v>164682.38606706561</v>
       </c>
-      <c r="Y324" s="2">
+      <c r="Y324" s="16">
         <v>171281.85967406252</v>
       </c>
-      <c r="Z324" s="2">
+      <c r="Z324" s="16">
         <v>177833.86132251265</v>
       </c>
-      <c r="AA324" s="2">
+      <c r="AA324" s="16">
         <v>184338.38925176836</v>
       </c>
-      <c r="AB324" s="2">
+      <c r="AB324" s="16">
         <v>190795.44170118182</v>
       </c>
-      <c r="AC324" s="2">
+      <c r="AC324" s="16">
         <v>197205.01691010548</v>
       </c>
-      <c r="AD324" s="2">
+      <c r="AD324" s="16">
         <v>203567.11311789148</v>
       </c>
-      <c r="AE324" s="2">
+      <c r="AE324" s="16">
         <v>209881.72856389219</v>
       </c>
-      <c r="AF324" s="2">
+      <c r="AF324" s="16">
         <v>216148.86148745983</v>
       </c>
-      <c r="AG324" s="2">
+      <c r="AG324" s="16">
         <v>222368.51012794682</v>
       </c>
-      <c r="AH324" s="2">
+      <c r="AH324" s="16">
         <v>228540.67272470522</v>
       </c>
-      <c r="AI324" s="2">
+      <c r="AI324" s="16">
         <v>234665.3475170875</v>
       </c>
-      <c r="AJ324" s="2">
+      <c r="AJ324" s="16">
         <v>240742.53274444581</v>
       </c>
-      <c r="AK324" s="2">
+      <c r="AK324" s="16">
         <v>246772.22664613259</v>
       </c>
-      <c r="AL324" s="2">
+      <c r="AL324" s="16">
         <v>252754.42746149999</v>
       </c>
     </row>
-    <row r="325" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="A325" s="9" t="s">
         <v>4</v>
       </c>
@@ -38258,7 +39531,7 @@
         <v>800283.57679285726</v>
       </c>
     </row>
-    <row r="326" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="A326" s="12" t="s">
         <v>4</v>
       </c>
@@ -38374,7 +39647,7 @@
         <v>18235.205999999998</v>
       </c>
     </row>
-    <row r="327" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A327" s="12" t="s">
         <v>4</v>
       </c>
@@ -38390,107 +39663,107 @@
       <c r="E327" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="F327" s="2">
+      <c r="F327" s="16">
         <v>31044.961138461538</v>
       </c>
-      <c r="G327" s="2">
+      <c r="G327" s="16">
         <v>36252.15153064904</v>
       </c>
-      <c r="H327" s="2">
+      <c r="H327" s="16">
         <v>41116.871864342946</v>
       </c>
-      <c r="I327" s="2">
+      <c r="I327" s="16">
         <v>45640.833634615381</v>
       </c>
-      <c r="J327" s="2">
+      <c r="J327" s="16">
         <v>49825.748336538469</v>
       </c>
-      <c r="K327" s="2">
+      <c r="K327" s="16">
         <v>53673.327465184288</v>
       </c>
-      <c r="L327" s="2">
+      <c r="L327" s="16">
         <v>57185.282515625011</v>
       </c>
-      <c r="M327" s="2">
+      <c r="M327" s="16">
         <v>60363.324982932681</v>
       </c>
-      <c r="N327" s="2">
+      <c r="N327" s="16">
         <v>63209.16636217948</v>
       </c>
-      <c r="O327" s="2">
+      <c r="O327" s="16">
         <v>65724.518148437492</v>
       </c>
-      <c r="P327" s="2">
+      <c r="P327" s="16">
         <v>67911.09183677884</v>
       </c>
-      <c r="Q327" s="2">
+      <c r="Q327" s="16">
         <v>69770.598922275647</v>
       </c>
-      <c r="R327" s="2">
+      <c r="R327" s="16">
         <v>71304.750899999999</v>
       </c>
-      <c r="S327" s="2">
+      <c r="S327" s="16">
         <v>74342.502322896631</v>
       </c>
-      <c r="T327" s="2">
+      <c r="T327" s="16">
         <v>77254.722687620189</v>
       </c>
-      <c r="U327" s="2">
+      <c r="U327" s="16">
         <v>80042.028663245204</v>
       </c>
-      <c r="V327" s="2">
+      <c r="V327" s="16">
         <v>82705.036918846163</v>
       </c>
-      <c r="W327" s="2">
+      <c r="W327" s="16">
         <v>85244.364123497609</v>
       </c>
-      <c r="X327" s="2">
+      <c r="X327" s="16">
         <v>87660.626946274031</v>
       </c>
-      <c r="Y327" s="2">
+      <c r="Y327" s="16">
         <v>89954.442056249987</v>
       </c>
-      <c r="Z327" s="2">
+      <c r="Z327" s="16">
         <v>92126.426122500008</v>
       </c>
-      <c r="AA327" s="2">
+      <c r="AA327" s="16">
         <v>94177.195814098566</v>
       </c>
-      <c r="AB327" s="2">
+      <c r="AB327" s="16">
         <v>96107.367800120192</v>
       </c>
-      <c r="AC327" s="2">
+      <c r="AC327" s="16">
         <v>97917.558749639429</v>
       </c>
-      <c r="AD327" s="2">
+      <c r="AD327" s="16">
         <v>99608.385331730766</v>
       </c>
-      <c r="AE327" s="2">
+      <c r="AE327" s="16">
         <v>101180.46421546876</v>
       </c>
-      <c r="AF327" s="2">
+      <c r="AF327" s="16">
         <v>102634.41206992787</v>
       </c>
-      <c r="AG327" s="2">
+      <c r="AG327" s="16">
         <v>103970.8455641827</v>
       </c>
-      <c r="AH327" s="2">
+      <c r="AH327" s="16">
         <v>105190.38136730767</v>
       </c>
-      <c r="AI327" s="2">
+      <c r="AI327" s="16">
         <v>106293.63614837741</v>
       </c>
-      <c r="AJ327" s="2">
+      <c r="AJ327" s="16">
         <v>107281.22657646633</v>
       </c>
-      <c r="AK327" s="2">
+      <c r="AK327" s="16">
         <v>108153.76932064905</v>
       </c>
-      <c r="AL327" s="2">
+      <c r="AL327" s="16">
         <v>108911.88105000001</v>
       </c>
     </row>
-    <row r="328" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="A328" s="12" t="s">
         <v>4</v>
       </c>
@@ -38606,7 +39879,7 @@
         <v>398611.89423000003</v>
       </c>
     </row>
-    <row r="329" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="A329" s="11" t="s">
         <v>4</v>
       </c>
@@ -38722,7 +39995,7 @@
         <v>18.235205999999998</v>
       </c>
     </row>
-    <row r="330" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A330" s="12" t="s">
         <v>4</v>
       </c>
@@ -38738,107 +40011,107 @@
       <c r="E330" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="F330" s="2">
+      <c r="F330" s="16">
         <v>155.20603076923078</v>
       </c>
-      <c r="G330" s="2">
+      <c r="G330" s="16">
         <v>175.22835572115383</v>
       </c>
-      <c r="H330" s="2">
+      <c r="H330" s="16">
         <v>191.55108644230771</v>
       </c>
-      <c r="I330" s="2">
+      <c r="I330" s="16">
         <v>204.19349076923075</v>
       </c>
-      <c r="J330" s="2">
+      <c r="J330" s="16">
         <v>213.17483653846153</v>
       </c>
-      <c r="K330" s="2">
+      <c r="K330" s="16">
         <v>218.51439158653847</v>
       </c>
-      <c r="L330" s="2">
+      <c r="L330" s="16">
         <v>220.23142375000003</v>
       </c>
-      <c r="M330" s="2">
+      <c r="M330" s="16">
         <v>218.34520086538461</v>
       </c>
-      <c r="N330" s="2">
+      <c r="N330" s="16">
         <v>212.87499076923078</v>
       </c>
-      <c r="O330" s="2">
+      <c r="O330" s="16">
         <v>203.84006129807693</v>
       </c>
-      <c r="P330" s="2">
+      <c r="P330" s="16">
         <v>191.25968028846154</v>
       </c>
-      <c r="Q330" s="2">
+      <c r="Q330" s="16">
         <v>175.15311557692306</v>
       </c>
-      <c r="R330" s="2">
+      <c r="R330" s="16">
         <v>155.539635</v>
       </c>
-      <c r="S330" s="2">
+      <c r="S330" s="16">
         <v>158.92620767307693</v>
       </c>
-      <c r="T330" s="2">
+      <c r="T330" s="16">
         <v>161.69083269230768</v>
       </c>
-      <c r="U330" s="2">
+      <c r="U330" s="16">
         <v>163.83681311538462</v>
       </c>
-      <c r="V330" s="2">
+      <c r="V330" s="16">
         <v>165.36745200000001</v>
       </c>
-      <c r="W330" s="2">
+      <c r="W330" s="16">
         <v>166.28605240384616</v>
       </c>
-      <c r="X330" s="2">
+      <c r="X330" s="16">
         <v>166.59591738461538</v>
       </c>
-      <c r="Y330" s="2">
+      <c r="Y330" s="16">
         <v>166.30034999999998</v>
       </c>
-      <c r="Z330" s="2">
+      <c r="Z330" s="16">
         <v>165.4026533076923</v>
       </c>
-      <c r="AA330" s="2">
+      <c r="AA330" s="16">
         <v>163.90613036538463</v>
       </c>
-      <c r="AB330" s="2">
+      <c r="AB330" s="16">
         <v>161.81408423076923</v>
       </c>
-      <c r="AC330" s="2">
+      <c r="AC330" s="16">
         <v>159.12981796153844</v>
       </c>
-      <c r="AD330" s="2">
+      <c r="AD330" s="16">
         <v>155.85663461538462</v>
       </c>
-      <c r="AE330" s="2">
+      <c r="AE330" s="16">
         <v>151.99783724999998</v>
       </c>
-      <c r="AF330" s="2">
+      <c r="AF330" s="16">
         <v>147.55672892307692</v>
       </c>
-      <c r="AG330" s="2">
+      <c r="AG330" s="16">
         <v>142.5366126923077</v>
       </c>
-      <c r="AH330" s="2">
+      <c r="AH330" s="16">
         <v>136.9407916153846</v>
       </c>
-      <c r="AI330" s="2">
+      <c r="AI330" s="16">
         <v>130.77256875</v>
       </c>
-      <c r="AJ330" s="2">
+      <c r="AJ330" s="16">
         <v>124.03524715384614</v>
       </c>
-      <c r="AK330" s="2">
+      <c r="AK330" s="16">
         <v>116.73212988461539</v>
       </c>
-      <c r="AL330" s="2">
+      <c r="AL330" s="16">
         <v>108.86652000000001</v>
       </c>
     </row>
-    <row r="331" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="A331" s="9" t="s">
         <v>4</v>
       </c>
@@ -38954,7 +40227,7 @@
         <v>663.40543500000001</v>
       </c>
     </row>
-    <row r="332" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="A332" s="7" t="s">
         <v>4</v>
       </c>
@@ -39070,7 +40343,7 @@
         <v>0.92096999999999996</v>
       </c>
     </row>
-    <row r="333" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A333" s="7" t="s">
         <v>4</v>
       </c>
@@ -39086,107 +40359,107 @@
       <c r="E333" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="F333" s="2">
+      <c r="F333" s="16">
         <v>9.5960717948717935</v>
       </c>
-      <c r="G333" s="2">
+      <c r="G333" s="16">
         <v>11.398030490785255</v>
       </c>
-      <c r="H333" s="2">
+      <c r="H333" s="16">
         <v>13.128061869391022</v>
       </c>
-      <c r="I333" s="2">
+      <c r="I333" s="16">
         <v>14.773579576923073</v>
       </c>
-      <c r="J333" s="2">
+      <c r="J333" s="16">
         <v>16.321997259615383</v>
       </c>
-      <c r="K333" s="2">
+      <c r="K333" s="16">
         <v>17.760728563701917</v>
       </c>
-      <c r="L333" s="2">
+      <c r="L333" s="16">
         <v>19.077187135416668</v>
       </c>
-      <c r="M333" s="2">
+      <c r="M333" s="16">
         <v>20.25878662099359</v>
       </c>
-      <c r="N333" s="2">
+      <c r="N333" s="16">
         <v>21.292940666666667</v>
       </c>
-      <c r="O333" s="2">
+      <c r="O333" s="16">
         <v>22.16706291866987</v>
       </c>
-      <c r="P333" s="2">
+      <c r="P333" s="16">
         <v>22.86856702323718</v>
       </c>
-      <c r="Q333" s="2">
+      <c r="Q333" s="16">
         <v>23.384866626602566</v>
       </c>
-      <c r="R333" s="2">
+      <c r="R333" s="16">
         <v>23.703375374999997</v>
       </c>
-      <c r="S333" s="2">
+      <c r="S333" s="16">
         <v>24.919018864182686</v>
       </c>
-      <c r="T333" s="2">
+      <c r="T333" s="16">
         <v>26.083390348557689</v>
       </c>
-      <c r="U333" s="2">
+      <c r="U333" s="16">
         <v>27.191564733173074</v>
       </c>
-      <c r="V333" s="2">
+      <c r="V333" s="16">
         <v>28.238616923076918</v>
       </c>
-      <c r="W333" s="2">
+      <c r="W333" s="16">
         <v>29.219621823317308</v>
       </c>
-      <c r="X333" s="2">
+      <c r="X333" s="16">
         <v>30.129654338942302</v>
       </c>
-      <c r="Y333" s="2">
+      <c r="Y333" s="16">
         <v>30.963789374999998</v>
       </c>
-      <c r="Z333" s="2">
+      <c r="Z333" s="16">
         <v>31.717101836538461</v>
       </c>
-      <c r="AA333" s="2">
+      <c r="AA333" s="16">
         <v>32.384666628605771</v>
       </c>
-      <c r="AB333" s="2">
+      <c r="AB333" s="16">
         <v>32.961558656249991</v>
       </c>
-      <c r="AC333" s="2">
+      <c r="AC333" s="16">
         <v>33.442852824519228</v>
       </c>
-      <c r="AD333" s="2">
+      <c r="AD333" s="16">
         <v>33.823624038461539</v>
       </c>
-      <c r="AE333" s="2">
+      <c r="AE333" s="16">
         <v>34.098947203125</v>
       </c>
-      <c r="AF333" s="2">
+      <c r="AF333" s="16">
         <v>34.263897223557684</v>
       </c>
-      <c r="AG333" s="2">
+      <c r="AG333" s="16">
         <v>34.31354900480769</v>
       </c>
-      <c r="AH333" s="2">
+      <c r="AH333" s="16">
         <v>34.242977451923068</v>
       </c>
-      <c r="AI333" s="2">
+      <c r="AI333" s="16">
         <v>34.047257469951923</v>
       </c>
-      <c r="AJ333" s="2">
+      <c r="AJ333" s="16">
         <v>33.721463963942305</v>
       </c>
-      <c r="AK333" s="2">
+      <c r="AK333" s="16">
         <v>33.260671838942301</v>
       </c>
-      <c r="AL333" s="2">
+      <c r="AL333" s="16">
         <v>32.659956000000001</v>
       </c>
     </row>
-    <row r="334" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="A334" s="7" t="s">
         <v>4</v>
       </c>
@@ -39302,7 +40575,7 @@
         <v>603.09585000000004</v>
       </c>
     </row>
-    <row r="335" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="A335" s="11" t="s">
         <v>4</v>
       </c>
@@ -39418,7 +40691,7 @@
         <v>1.0130669999999999</v>
       </c>
     </row>
-    <row r="336" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A336" s="7" t="s">
         <v>4</v>
       </c>
@@ -39434,107 +40707,107 @@
       <c r="E336" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="F336" s="2">
+      <c r="F336" s="16">
         <v>9.9799146666666658</v>
       </c>
-      <c r="G336" s="2">
+      <c r="G336" s="16">
         <v>11.832617441907049</v>
       </c>
-      <c r="H336" s="2">
+      <c r="H336" s="16">
         <v>13.601999120993588</v>
       </c>
-      <c r="I336" s="2">
+      <c r="I336" s="16">
         <v>15.274378884615381</v>
       </c>
-      <c r="J336" s="2">
+      <c r="J336" s="16">
         <v>16.836075913461535</v>
       </c>
-      <c r="K336" s="2">
+      <c r="K336" s="16">
         <v>18.27340938822115</v>
       </c>
-      <c r="L336" s="2">
+      <c r="L336" s="16">
         <v>19.572698489583335</v>
       </c>
-      <c r="M336" s="2">
+      <c r="M336" s="16">
         <v>20.720262398237175</v>
       </c>
-      <c r="N336" s="2">
+      <c r="N336" s="16">
         <v>21.702420294871793</v>
       </c>
-      <c r="O336" s="2">
+      <c r="O336" s="16">
         <v>22.505491360176279</v>
       </c>
-      <c r="P336" s="2">
+      <c r="P336" s="16">
         <v>23.115794774839745</v>
       </c>
-      <c r="Q336" s="2">
+      <c r="Q336" s="16">
         <v>23.519649719551278</v>
       </c>
-      <c r="R336" s="2">
+      <c r="R336" s="16">
         <v>23.703375374999997</v>
       </c>
-      <c r="S336" s="2">
+      <c r="S336" s="16">
         <v>25.061413257692301</v>
       </c>
-      <c r="T336" s="2">
+      <c r="T336" s="16">
         <v>26.390253764423075</v>
       </c>
-      <c r="U336" s="2">
+      <c r="U336" s="16">
         <v>27.685956819230764</v>
       </c>
-      <c r="V336" s="2">
+      <c r="V336" s="16">
         <v>28.944582346153844</v>
       </c>
-      <c r="W336" s="2">
+      <c r="W336" s="16">
         <v>30.16219026923077</v>
       </c>
-      <c r="X336" s="2">
+      <c r="X336" s="16">
         <v>31.334840512499991</v>
       </c>
-      <c r="Y336" s="2">
+      <c r="Y336" s="16">
         <v>32.458593</v>
       </c>
-      <c r="Z336" s="2">
+      <c r="Z336" s="16">
         <v>33.52950765576923</v>
       </c>
-      <c r="AA336" s="2">
+      <c r="AA336" s="16">
         <v>34.543644403846152</v>
       </c>
-      <c r="AB336" s="2">
+      <c r="AB336" s="16">
         <v>35.497063168269221</v>
       </c>
-      <c r="AC336" s="2">
+      <c r="AC336" s="16">
         <v>36.385823873076916</v>
       </c>
-      <c r="AD336" s="2">
+      <c r="AD336" s="16">
         <v>37.20598644230769</v>
       </c>
-      <c r="AE336" s="2">
+      <c r="AE336" s="16">
         <v>37.953610799999993</v>
       </c>
-      <c r="AF336" s="2">
+      <c r="AF336" s="16">
         <v>38.6247568701923</v>
       </c>
-      <c r="AG336" s="2">
+      <c r="AG336" s="16">
         <v>39.215484576923068</v>
       </c>
-      <c r="AH336" s="2">
+      <c r="AH336" s="16">
         <v>39.721853844230765</v>
       </c>
-      <c r="AI336" s="2">
+      <c r="AI336" s="16">
         <v>40.139924596153847</v>
       </c>
-      <c r="AJ336" s="2">
+      <c r="AJ336" s="16">
         <v>40.465756756730762</v>
       </c>
-      <c r="AK336" s="2">
+      <c r="AK336" s="16">
         <v>40.695410249999995</v>
       </c>
-      <c r="AL336" s="2">
+      <c r="AL336" s="16">
         <v>40.824945</v>
       </c>
     </row>
-    <row r="337" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="A337" s="9" t="s">
         <v>4</v>
       </c>
@@ -39650,7 +40923,7 @@
         <v>689.25239999999997</v>
       </c>
     </row>
-    <row r="338" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="A338" s="7" t="s">
         <v>4</v>
       </c>
@@ -39766,7 +41039,7 @@
         <v>9.2096999999999998E-2</v>
       </c>
     </row>
-    <row r="339" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A339" s="7" t="s">
         <v>4</v>
       </c>
@@ -39782,107 +41055,107 @@
       <c r="E339" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="F339" s="2">
+      <c r="F339" s="16">
         <v>0.63417517948717939</v>
       </c>
-      <c r="G339" s="2">
+      <c r="G339" s="16">
         <v>0.76806987920673075</v>
       </c>
-      <c r="H339" s="2">
+      <c r="H339" s="16">
         <v>0.90182900841346136</v>
       </c>
-      <c r="I339" s="2">
+      <c r="I339" s="16">
         <v>1.0344744294871793</v>
       </c>
-      <c r="J339" s="2">
+      <c r="J339" s="16">
         <v>1.1650280048076922</v>
       </c>
-      <c r="K339" s="2">
+      <c r="K339" s="16">
         <v>1.2925115967548073</v>
       </c>
-      <c r="L339" s="2">
+      <c r="L339" s="16">
         <v>1.4159470677083335</v>
       </c>
-      <c r="M339" s="2">
+      <c r="M339" s="16">
         <v>1.5343562800480768</v>
       </c>
-      <c r="N339" s="2">
+      <c r="N339" s="16">
         <v>1.6467610961538461</v>
       </c>
-      <c r="O339" s="2">
+      <c r="O339" s="16">
         <v>1.7521833784054486</v>
       </c>
-      <c r="P339" s="2">
+      <c r="P339" s="16">
         <v>1.8496449891826923</v>
       </c>
-      <c r="Q339" s="2">
+      <c r="Q339" s="16">
         <v>1.9381677908653843</v>
       </c>
-      <c r="R339" s="2">
+      <c r="R339" s="16">
         <v>2.0167736458333332</v>
       </c>
-      <c r="S339" s="2">
+      <c r="S339" s="16">
         <v>2.1503102401442309</v>
       </c>
-      <c r="T339" s="2">
+      <c r="T339" s="16">
         <v>2.2830100961538462</v>
       </c>
-      <c r="U339" s="2">
+      <c r="U339" s="16">
         <v>2.4144819588141018</v>
       </c>
-      <c r="V339" s="2">
+      <c r="V339" s="16">
         <v>2.5443345730769225</v>
       </c>
-      <c r="W339" s="2">
+      <c r="W339" s="16">
         <v>2.6721766838942305</v>
       </c>
-      <c r="X339" s="2">
+      <c r="X339" s="16">
         <v>2.797617036217948</v>
       </c>
-      <c r="Y339" s="2">
+      <c r="Y339" s="16">
         <v>2.9202643749999999</v>
       </c>
-      <c r="Z339" s="2">
+      <c r="Z339" s="16">
         <v>3.0397274451923075</v>
       </c>
-      <c r="AA339" s="2">
+      <c r="AA339" s="16">
         <v>3.1556149917467944</v>
       </c>
-      <c r="AB339" s="2">
+      <c r="AB339" s="16">
         <v>3.2675357596153844</v>
       </c>
-      <c r="AC339" s="2">
+      <c r="AC339" s="16">
         <v>3.3750984937499995</v>
       </c>
-      <c r="AD339" s="2">
+      <c r="AD339" s="16">
         <v>3.4779119391025635</v>
       </c>
-      <c r="AE339" s="2">
+      <c r="AE339" s="16">
         <v>3.5755848406249995</v>
       </c>
-      <c r="AF339" s="2">
+      <c r="AF339" s="16">
         <v>3.6677259432692302</v>
       </c>
-      <c r="AG339" s="2">
+      <c r="AG339" s="16">
         <v>3.7539439919871795</v>
       </c>
-      <c r="AH339" s="2">
+      <c r="AH339" s="16">
         <v>3.8338477317307689</v>
       </c>
-      <c r="AI339" s="2">
+      <c r="AI339" s="16">
         <v>3.907045907451923</v>
       </c>
-      <c r="AJ339" s="2">
+      <c r="AJ339" s="16">
         <v>3.9731472641025638</v>
       </c>
-      <c r="AK339" s="2">
+      <c r="AK339" s="16">
         <v>4.0317605466346151</v>
       </c>
-      <c r="AL339" s="2">
+      <c r="AL339" s="16">
         <v>4.0824945000000001</v>
       </c>
     </row>
-    <row r="340" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="A340" s="7" t="s">
         <v>4</v>
       </c>
@@ -39998,7 +41271,7 @@
         <v>43.078274999999998</v>
       </c>
     </row>
-    <row r="341" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="A341" s="11" t="s">
         <v>4</v>
       </c>
@@ -40114,7 +41387,7 @@
         <v>0.46048499999999998</v>
       </c>
     </row>
-    <row r="342" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A342" s="7" t="s">
         <v>4</v>
       </c>
@@ -40130,107 +41403,107 @@
       <c r="E342" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="F342" s="2">
+      <c r="F342" s="16">
         <v>2.3781569230769226</v>
       </c>
-      <c r="G342" s="2">
+      <c r="G342" s="16">
         <v>2.8905855669070513</v>
       </c>
-      <c r="H342" s="2">
+      <c r="H342" s="16">
         <v>3.4069095873397428</v>
       </c>
-      <c r="I342" s="2">
+      <c r="I342" s="16">
         <v>3.9238685256410251</v>
       </c>
-      <c r="J342" s="2">
+      <c r="J342" s="16">
         <v>4.4382019230769219</v>
       </c>
-      <c r="K342" s="2">
+      <c r="K342" s="16">
         <v>4.9466493209134601</v>
       </c>
-      <c r="L342" s="2">
+      <c r="L342" s="16">
         <v>5.4459502604166667</v>
       </c>
-      <c r="M342" s="2">
+      <c r="M342" s="16">
         <v>5.9328442828525638</v>
       </c>
-      <c r="N342" s="2">
+      <c r="N342" s="16">
         <v>6.4040709294871787</v>
       </c>
-      <c r="O342" s="2">
+      <c r="O342" s="16">
         <v>6.8563697415865379</v>
       </c>
-      <c r="P342" s="2">
+      <c r="P342" s="16">
         <v>7.2864802604166652</v>
       </c>
-      <c r="Q342" s="2">
+      <c r="Q342" s="16">
         <v>7.6911420272435898</v>
       </c>
-      <c r="R342" s="2">
+      <c r="R342" s="16">
         <v>8.0670945833333327</v>
       </c>
-      <c r="S342" s="2">
+      <c r="S342" s="16">
         <v>8.6012409605769236</v>
       </c>
-      <c r="T342" s="2">
+      <c r="T342" s="16">
         <v>9.1320403846153848</v>
       </c>
-      <c r="U342" s="2">
+      <c r="U342" s="16">
         <v>9.6579278352564071</v>
       </c>
-      <c r="V342" s="2">
+      <c r="V342" s="16">
         <v>10.17733829230769</v>
       </c>
-      <c r="W342" s="2">
+      <c r="W342" s="16">
         <v>10.688706735576922</v>
       </c>
-      <c r="X342" s="2">
+      <c r="X342" s="16">
         <v>11.190468144871792</v>
       </c>
-      <c r="Y342" s="2">
+      <c r="Y342" s="16">
         <v>11.6810575</v>
       </c>
-      <c r="Z342" s="2">
+      <c r="Z342" s="16">
         <v>12.15890978076923</v>
       </c>
-      <c r="AA342" s="2">
+      <c r="AA342" s="16">
         <v>12.622459966987178</v>
       </c>
-      <c r="AB342" s="2">
+      <c r="AB342" s="16">
         <v>13.070143038461538</v>
       </c>
-      <c r="AC342" s="2">
+      <c r="AC342" s="16">
         <v>13.500393974999998</v>
       </c>
-      <c r="AD342" s="2">
+      <c r="AD342" s="16">
         <v>13.911647756410254</v>
       </c>
-      <c r="AE342" s="2">
+      <c r="AE342" s="16">
         <v>14.302339362499998</v>
       </c>
-      <c r="AF342" s="2">
+      <c r="AF342" s="16">
         <v>14.670903773076921</v>
       </c>
-      <c r="AG342" s="2">
+      <c r="AG342" s="16">
         <v>15.015775967948718</v>
       </c>
-      <c r="AH342" s="2">
+      <c r="AH342" s="16">
         <v>15.335390926923075</v>
       </c>
-      <c r="AI342" s="2">
+      <c r="AI342" s="16">
         <v>15.628183629807692</v>
       </c>
-      <c r="AJ342" s="2">
+      <c r="AJ342" s="16">
         <v>15.892589056410255</v>
       </c>
-      <c r="AK342" s="2">
+      <c r="AK342" s="16">
         <v>16.127042186538461</v>
       </c>
-      <c r="AL342" s="2">
+      <c r="AL342" s="16">
         <v>16.329978000000001</v>
       </c>
     </row>
-    <row r="343" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="A343" s="7" t="s">
         <v>4</v>
       </c>
@@ -40346,7 +41619,7 @@
         <v>172.31309999999999</v>
       </c>
     </row>
-    <row r="344" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="A344" s="11" t="s">
         <v>4</v>
       </c>
@@ -40462,7 +41735,7 @@
         <v>0.82887299999999997</v>
       </c>
     </row>
-    <row r="345" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A345" s="7" t="s">
         <v>4</v>
       </c>
@@ -40478,107 +41751,107 @@
       <c r="E345" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="F345" s="2">
+      <c r="F345" s="16">
         <v>5.5490328205128199</v>
       </c>
-      <c r="G345" s="2">
+      <c r="G345" s="16">
         <v>6.6896408834134604</v>
       </c>
-      <c r="H345" s="2">
+      <c r="H345" s="16">
         <v>7.8158514062499984</v>
       </c>
-      <c r="I345" s="2">
+      <c r="I345" s="16">
         <v>8.9178830128205107</v>
       </c>
-      <c r="J345" s="2">
+      <c r="J345" s="16">
         <v>9.9859543269230748</v>
       </c>
-      <c r="K345" s="2">
+      <c r="K345" s="16">
         <v>11.010283972355767</v>
       </c>
-      <c r="L345" s="2">
+      <c r="L345" s="16">
         <v>11.981090572916667</v>
       </c>
-      <c r="M345" s="2">
+      <c r="M345" s="16">
         <v>12.888592752403843</v>
       </c>
-      <c r="N345" s="2">
+      <c r="N345" s="16">
         <v>13.723009134615385</v>
       </c>
-      <c r="O345" s="2">
+      <c r="O345" s="16">
         <v>14.474558343349358</v>
       </c>
-      <c r="P345" s="2">
+      <c r="P345" s="16">
         <v>15.133459002403844</v>
       </c>
-      <c r="Q345" s="2">
+      <c r="Q345" s="16">
         <v>15.689929735576923</v>
       </c>
-      <c r="R345" s="2">
+      <c r="R345" s="16">
         <v>16.134189166666665</v>
       </c>
-      <c r="S345" s="2">
+      <c r="S345" s="16">
         <v>17.202481921153847</v>
       </c>
-      <c r="T345" s="2">
+      <c r="T345" s="16">
         <v>18.26408076923077</v>
       </c>
-      <c r="U345" s="2">
+      <c r="U345" s="16">
         <v>19.315855670512814</v>
       </c>
-      <c r="V345" s="2">
+      <c r="V345" s="16">
         <v>20.35467658461538</v>
       </c>
-      <c r="W345" s="2">
+      <c r="W345" s="16">
         <v>21.377413471153844</v>
       </c>
-      <c r="X345" s="2">
+      <c r="X345" s="16">
         <v>22.380936289743584</v>
       </c>
-      <c r="Y345" s="2">
+      <c r="Y345" s="16">
         <v>23.362114999999999</v>
       </c>
-      <c r="Z345" s="2">
+      <c r="Z345" s="16">
         <v>24.31781956153846</v>
       </c>
-      <c r="AA345" s="2">
+      <c r="AA345" s="16">
         <v>25.244919933974355</v>
       </c>
-      <c r="AB345" s="2">
+      <c r="AB345" s="16">
         <v>26.140286076923076</v>
       </c>
-      <c r="AC345" s="2">
+      <c r="AC345" s="16">
         <v>27.000787949999996</v>
       </c>
-      <c r="AD345" s="2">
+      <c r="AD345" s="16">
         <v>27.823295512820508</v>
       </c>
-      <c r="AE345" s="2">
+      <c r="AE345" s="16">
         <v>28.604678724999996</v>
       </c>
-      <c r="AF345" s="2">
+      <c r="AF345" s="16">
         <v>29.341807546153841</v>
       </c>
-      <c r="AG345" s="2">
+      <c r="AG345" s="16">
         <v>30.031551935897436</v>
       </c>
-      <c r="AH345" s="2">
+      <c r="AH345" s="16">
         <v>30.670781853846151</v>
       </c>
-      <c r="AI345" s="2">
+      <c r="AI345" s="16">
         <v>31.256367259615384</v>
       </c>
-      <c r="AJ345" s="2">
+      <c r="AJ345" s="16">
         <v>31.78517811282051</v>
       </c>
-      <c r="AK345" s="2">
+      <c r="AK345" s="16">
         <v>32.254084373076921</v>
       </c>
-      <c r="AL345" s="2">
+      <c r="AL345" s="16">
         <v>32.659956000000001</v>
       </c>
     </row>
-    <row r="346" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="A346" s="9" t="s">
         <v>4</v>
       </c>
@@ -40694,7 +41967,7 @@
         <v>344.62619999999998</v>
       </c>
     </row>
-    <row r="347" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="A347" s="7" t="s">
         <v>4</v>
       </c>
@@ -40810,7 +42083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="348" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A348" s="7" t="s">
         <v>4</v>
       </c>
@@ -40826,107 +42099,107 @@
       <c r="E348" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="F348" s="2">
+      <c r="F348" s="16">
         <v>1.201595076923077</v>
       </c>
-      <c r="G348" s="2">
+      <c r="G348" s="16">
         <v>1.4883485697115384</v>
       </c>
-      <c r="H348" s="2">
+      <c r="H348" s="16">
         <v>1.7815836009615382</v>
       </c>
-      <c r="I348" s="2">
+      <c r="I348" s="16">
         <v>2.0775842307692303</v>
       </c>
-      <c r="J348" s="2">
+      <c r="J348" s="16">
         <v>2.3726345192307692</v>
       </c>
-      <c r="K348" s="2">
+      <c r="K348" s="16">
         <v>2.6630185264423076</v>
       </c>
-      <c r="L348" s="2">
+      <c r="L348" s="16">
         <v>2.9450203125000005</v>
       </c>
-      <c r="M348" s="2">
+      <c r="M348" s="16">
         <v>3.2149239374999996</v>
       </c>
-      <c r="N348" s="2">
+      <c r="N348" s="16">
         <v>3.4690134615384616</v>
       </c>
-      <c r="O348" s="2">
+      <c r="O348" s="16">
         <v>3.7035729447115391</v>
       </c>
-      <c r="P348" s="2">
+      <c r="P348" s="16">
         <v>3.9148864471153848</v>
       </c>
-      <c r="Q348" s="2">
+      <c r="Q348" s="16">
         <v>4.0992380288461536</v>
       </c>
-      <c r="R348" s="2">
+      <c r="R348" s="16">
         <v>4.25291175</v>
       </c>
-      <c r="S348" s="2">
+      <c r="S348" s="16">
         <v>4.5713211923076917</v>
       </c>
-      <c r="T348" s="2">
+      <c r="T348" s="16">
         <v>4.8892227980769229</v>
       </c>
-      <c r="U348" s="2">
+      <c r="U348" s="16">
         <v>5.2053425307692294</v>
       </c>
-      <c r="V348" s="2">
+      <c r="V348" s="16">
         <v>5.5184063538461539</v>
       </c>
-      <c r="W348" s="2">
+      <c r="W348" s="16">
         <v>5.8271402307692304</v>
       </c>
-      <c r="X348" s="2">
+      <c r="X348" s="16">
         <v>6.1302701249999982</v>
       </c>
-      <c r="Y348" s="2">
+      <c r="Y348" s="16">
         <v>6.4265220000000003</v>
       </c>
-      <c r="Z348" s="2">
+      <c r="Z348" s="16">
         <v>6.7146218192307687</v>
       </c>
-      <c r="AA348" s="2">
+      <c r="AA348" s="16">
         <v>6.9932955461538464</v>
       </c>
-      <c r="AB348" s="2">
+      <c r="AB348" s="16">
         <v>7.2612691442307682</v>
       </c>
-      <c r="AC348" s="2">
+      <c r="AC348" s="16">
         <v>7.517268576923076</v>
       </c>
-      <c r="AD348" s="2">
+      <c r="AD348" s="16">
         <v>7.7600198076923066</v>
       </c>
-      <c r="AE348" s="2">
+      <c r="AE348" s="16">
         <v>7.9882487999999992</v>
       </c>
-      <c r="AF348" s="2">
+      <c r="AF348" s="16">
         <v>8.2006815173076912</v>
       </c>
-      <c r="AG348" s="2">
+      <c r="AG348" s="16">
         <v>8.3960439230769222</v>
       </c>
-      <c r="AH348" s="2">
+      <c r="AH348" s="16">
         <v>8.5730619807692303</v>
       </c>
-      <c r="AI348" s="2">
+      <c r="AI348" s="16">
         <v>8.7304616538461541</v>
       </c>
-      <c r="AJ348" s="2">
+      <c r="AJ348" s="16">
         <v>8.8669689057692302</v>
       </c>
-      <c r="AK348" s="2">
+      <c r="AK348" s="16">
         <v>8.9813097000000006</v>
       </c>
-      <c r="AL348" s="2">
+      <c r="AL348" s="16">
         <v>9.0722100000000001</v>
       </c>
     </row>
-    <row r="349" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="A349" s="9" t="s">
         <v>4</v>
       </c>
@@ -41042,7 +42315,7 @@
         <v>103.38785999999999</v>
       </c>
     </row>
-    <row r="350" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="A350" s="7" t="s">
         <v>8</v>
       </c>
@@ -41158,7 +42431,7 @@
         <v>8044744.8571428582</v>
       </c>
     </row>
-    <row r="351" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="A351" s="7" t="s">
         <v>8</v>
       </c>
@@ -41274,7 +42547,7 @@
         <v>15991090.071428573</v>
       </c>
     </row>
-    <row r="352" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="A352" s="7" t="s">
         <v>8</v>
       </c>
@@ -41390,7 +42663,7 @@
         <v>41896831.007945322</v>
       </c>
     </row>
-    <row r="353" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="A353" s="11" t="s">
         <v>8</v>
       </c>
@@ -41506,7 +42779,7 @@
         <v>8991185.428571431</v>
       </c>
     </row>
-    <row r="354" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="A354" s="12" t="s">
         <v>8</v>
       </c>
@@ -41622,7 +42895,7 @@
         <v>17872394.785714287</v>
       </c>
     </row>
-    <row r="355" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="A355" s="9" t="s">
         <v>8</v>
       </c>
@@ -41738,7 +43011,7 @@
         <v>46825869.950056538</v>
       </c>
     </row>
-    <row r="356" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="A356" s="7" t="s">
         <v>8</v>
       </c>
@@ -41854,7 +43127,7 @@
         <v>1135728.6857142858</v>
       </c>
     </row>
-    <row r="357" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="A357" s="7" t="s">
         <v>8</v>
       </c>
@@ -41970,7 +43243,7 @@
         <v>2257565.6571428571</v>
       </c>
     </row>
-    <row r="358" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="A358" s="7" t="s">
         <v>8</v>
       </c>
@@ -42086,7 +43359,7 @@
         <v>5914846.7305334574</v>
       </c>
     </row>
-    <row r="359" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="A359" s="11" t="s">
         <v>8</v>
       </c>
@@ -42202,7 +43475,7 @@
         <v>6151863.7142857155</v>
       </c>
     </row>
-    <row r="360" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="A360" s="12" t="s">
         <v>8</v>
       </c>
@@ -42318,7 +43591,7 @@
         <v>12228480.642857146</v>
       </c>
     </row>
-    <row r="361" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="A361" s="9" t="s">
         <v>8</v>
       </c>
@@ -42434,7 +43707,7 @@
         <v>32038753.123722896</v>
       </c>
     </row>
-    <row r="362" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="A362" s="7" t="s">
         <v>8</v>
       </c>
@@ -42550,7 +43823,7 @@
         <v>993762.6</v>
       </c>
     </row>
-    <row r="363" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="A363" s="7" t="s">
         <v>8</v>
       </c>
@@ -42666,7 +43939,7 @@
         <v>1975369.95</v>
       </c>
     </row>
-    <row r="364" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="A364" s="12" t="s">
         <v>8</v>
       </c>
@@ -42782,7 +44055,7 @@
         <v>5175490.8892167751</v>
       </c>
     </row>
-    <row r="365" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="A365" s="11" t="s">
         <v>8</v>
       </c>
@@ -42898,7 +44171,7 @@
         <v>615191.34024157154</v>
       </c>
     </row>
-    <row r="366" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="A366" s="12" t="s">
         <v>8</v>
       </c>
@@ -43014,7 +44287,7 @@
         <v>1222986.3401822145</v>
       </c>
     </row>
-    <row r="367" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="A367" s="9" t="s">
         <v>8</v>
       </c>
@@ -43130,7 +44403,7 @@
         <v>3204910.4105501333</v>
       </c>
     </row>
-    <row r="368" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="A368" s="12" t="s">
         <v>8</v>
       </c>
@@ -43246,7 +44519,7 @@
         <v>163970.829</v>
       </c>
     </row>
-    <row r="369" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="A369" s="12" t="s">
         <v>8</v>
       </c>
@@ -43362,7 +44635,7 @@
         <v>526984.80554999993</v>
       </c>
     </row>
-    <row r="370" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="A370" s="12" t="s">
         <v>8</v>
       </c>
@@ -43478,7 +44751,7 @@
         <v>1596328.4098700224</v>
       </c>
     </row>
-    <row r="371" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="A371" s="11" t="s">
         <v>8</v>
       </c>
@@ -43594,7 +44867,7 @@
         <v>163.97082900000001</v>
       </c>
     </row>
-    <row r="372" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="A372" s="12" t="s">
         <v>8</v>
       </c>
@@ -43710,7 +44983,7 @@
         <v>526.76531999999997</v>
       </c>
     </row>
-    <row r="373" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="A373" s="9" t="s">
         <v>8</v>
       </c>
@@ -43826,7 +45099,7 @@
         <v>2656.7519897979446</v>
       </c>
     </row>
-    <row r="374" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="A374" s="7" t="s">
         <v>8</v>
       </c>
@@ -43942,7 +45215,7 @@
         <v>8.2813550000000014</v>
       </c>
     </row>
-    <row r="375" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="A375" s="7" t="s">
         <v>8</v>
       </c>
@@ -44058,7 +45331,7 @@
         <v>158.029596</v>
       </c>
     </row>
-    <row r="376" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="A376" s="7" t="s">
         <v>8</v>
       </c>
@@ -44174,7 +45447,7 @@
         <v>2415.2290816344953</v>
       </c>
     </row>
-    <row r="377" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="A377" s="11" t="s">
         <v>8</v>
       </c>
@@ -44290,7 +45563,7 @@
         <v>9.1094905000000015</v>
       </c>
     </row>
-    <row r="378" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="A378" s="7" t="s">
         <v>8</v>
       </c>
@@ -44406,7 +45679,7 @@
         <v>197.53699499999999</v>
       </c>
     </row>
-    <row r="379" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="A379" s="9" t="s">
         <v>8</v>
       </c>
@@ -44522,7 +45795,7 @@
         <v>2760.2618075822802</v>
       </c>
     </row>
-    <row r="380" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="A380" s="7" t="s">
         <v>8</v>
       </c>
@@ -44638,7 +45911,7 @@
         <v>0.82813550000000014</v>
       </c>
     </row>
-    <row r="381" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="A381" s="7" t="s">
         <v>8</v>
       </c>
@@ -44754,7 +46027,7 @@
         <v>19.7536995</v>
       </c>
     </row>
-    <row r="382" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="A382" s="7" t="s">
         <v>8</v>
       </c>
@@ -44870,7 +46143,7 @@
         <v>172.51636297389251</v>
       </c>
     </row>
-    <row r="383" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="A383" s="11" t="s">
         <v>8</v>
       </c>
@@ -44986,7 +46259,7 @@
         <v>4.1406775000000007</v>
       </c>
     </row>
-    <row r="384" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="A384" s="7" t="s">
         <v>8</v>
       </c>
@@ -45102,7 +46375,7 @@
         <v>79.014797999999999</v>
       </c>
     </row>
-    <row r="385" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="A385" s="7" t="s">
         <v>8</v>
       </c>
@@ -45218,7 +46491,7 @@
         <v>690.06545189557005</v>
       </c>
     </row>
-    <row r="386" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="A386" s="11" t="s">
         <v>8</v>
       </c>
@@ -45334,7 +46607,7 @@
         <v>7.4532195000000003</v>
       </c>
     </row>
-    <row r="387" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="A387" s="7" t="s">
         <v>8</v>
       </c>
@@ -45450,7 +46723,7 @@
         <v>158.029596</v>
       </c>
     </row>
-    <row r="388" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="A388" s="9" t="s">
         <v>8</v>
       </c>
@@ -45566,7 +46839,7 @@
         <v>1380.1309037911401</v>
       </c>
     </row>
-    <row r="389" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="A389" s="7" t="s">
         <v>8</v>
       </c>
@@ -45682,7 +46955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="390" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="A390" s="7" t="s">
         <v>8</v>
       </c>
@@ -45798,124 +47071,127 @@
         <v>43.897110000000005</v>
       </c>
     </row>
-    <row r="391" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A391" s="9" t="s">
+    <row r="391" spans="1:38" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A391" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="B391" s="9" t="s">
+      <c r="B391" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C391" s="9" t="s">
+      <c r="C391" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="D391" s="9" t="s">
+      <c r="D391" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="E391" s="9" t="s">
+      <c r="E391" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="F391" s="3">
+      <c r="F391" s="2">
         <v>14.76923076923077</v>
       </c>
-      <c r="G391" s="3">
+      <c r="G391" s="2">
         <v>36.567219665122373</v>
       </c>
-      <c r="H391" s="3">
+      <c r="H391" s="2">
         <v>58.444419065800766</v>
       </c>
-      <c r="I391" s="3">
+      <c r="I391" s="2">
         <v>79.146913776994211</v>
       </c>
-      <c r="J391" s="3">
+      <c r="J391" s="2">
         <v>99.000006982834321</v>
       </c>
-      <c r="K391" s="3">
+      <c r="K391" s="2">
         <v>118.02707628606868</v>
       </c>
-      <c r="L391" s="3">
+      <c r="L391" s="2">
         <v>136.17175398380121</v>
       </c>
-      <c r="M391" s="3">
+      <c r="M391" s="2">
         <v>153.35662041388602</v>
       </c>
-      <c r="N391" s="3">
+      <c r="N391" s="2">
         <v>169.50169622332379</v>
       </c>
-      <c r="O391" s="3">
+      <c r="O391" s="2">
         <v>184.53059930686845</v>
       </c>
-      <c r="P391" s="3">
+      <c r="P391" s="2">
         <v>198.3724105502601</v>
       </c>
-      <c r="Q391" s="3">
+      <c r="Q391" s="2">
         <v>210.96195208708036</v>
       </c>
-      <c r="R391" s="3">
+      <c r="R391" s="2">
         <v>222.23948059687797</v>
       </c>
-      <c r="S391" s="3">
+      <c r="S391" s="2">
         <v>237.70160751114815</v>
       </c>
-      <c r="T391" s="3">
+      <c r="T391" s="2">
         <v>252.67586556107861</v>
       </c>
-      <c r="U391" s="3">
+      <c r="U391" s="2">
         <v>267.13352224753061</v>
       </c>
-      <c r="V391" s="3">
+      <c r="V391" s="2">
         <v>281.0481217481173</v>
       </c>
-      <c r="W391" s="3">
+      <c r="W391" s="2">
         <v>294.39522305120067</v>
       </c>
-      <c r="X391" s="3">
+      <c r="X391" s="2">
         <v>307.15217108249874</v>
       </c>
-      <c r="Y391" s="3">
+      <c r="Y391" s="2">
         <v>319.2978980184817</v>
       </c>
-      <c r="Z391" s="3">
+      <c r="Z391" s="2">
         <v>330.81275120131141</v>
       </c>
-      <c r="AA391" s="3">
+      <c r="AA391" s="2">
         <v>341.67834405690746</v>
       </c>
-      <c r="AB391" s="3">
+      <c r="AB391" s="2">
         <v>351.87742671762692</v>
       </c>
-      <c r="AC391" s="3">
+      <c r="AC391" s="2">
         <v>361.39377345338272</v>
       </c>
-      <c r="AD391" s="3">
+      <c r="AD391" s="2">
         <v>370.21208442456526</v>
       </c>
-      <c r="AE391" s="3">
+      <c r="AE391" s="2">
         <v>378.31789964690768</v>
       </c>
-      <c r="AF391" s="3">
+      <c r="AF391" s="2">
         <v>385.69752338873934</v>
       </c>
-      <c r="AG391" s="3">
+      <c r="AG391" s="2">
         <v>392.33795750332297</v>
       </c>
-      <c r="AH391" s="3">
+      <c r="AH391" s="2">
         <v>398.22684243679333</v>
       </c>
-      <c r="AI391" s="3">
+      <c r="AI391" s="2">
         <v>403.35240485108636</v>
       </c>
-      <c r="AJ391" s="3">
+      <c r="AJ391" s="2">
         <v>407.70341096694244</v>
       </c>
-      <c r="AK391" s="3">
+      <c r="AK391" s="2">
         <v>411.26912486994638</v>
       </c>
-      <c r="AL391" s="3">
+      <c r="AL391" s="2">
         <v>414.03927113734198</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>